--- a/results_400.xlsx
+++ b/results_400.xlsx
@@ -48,19 +48,19 @@
     <t>[1.8350314844269806e6, 1.9150885666642494e6, 1.9488564479239166e6, 1.843796441580243e6, 1.9008179061544172e6, 1.9078016817366185e6, 1.9164806937257578e6, 1.954481788505511e6, 1.897959749733466e6, 1.9126844855586141e6, 1.9055549085358884e6, 1.9040445684987602e6, 1.8510198577184048e6, 1.9645848925276052e6, 1.8993249457776472e6, 1.892683907308803e6, 1.8890748626740032e6, 1.873395021504791e6, 1.907521770214266e6, 1.9058903191829117e6, 1.9370133418664716e6, 1.8699032638934918e6, 1.9256316959024873e6, 1.8451042743163211e6, 1.9081031920823571e6, 1.8978965352440353e6, 1.8657697485334678e6, 1.8662444297121798e6, 1.9082395807686707e6, 1.8542585277114988e6, 1.8470128111141706e6, 1.855832894622664e6, 1.883220719360592e6, 1.850550251935568e6, 1.8671644802954723e6, 1.8818048606778062e6, 1.8163292755346869e6, 1.9401508514580096e6, 1.90849102303223e6, 1.8473621343040112e6, 1.9380280558890784e6, 1.8769399531004368e6, 1.863370232305186e6, 1.8734865210493244e6, 1.867015280181259e6, 1.8862663974832871e6, 1.8918586691991321e6, 1.8947045183779418e6, 1.884783956905105e6, 1.8822250321485924e6, 1.8354925835272907e6, 1.8637191623161766e6, 1.8602012142950532e6, 1.869990896716635e6, 1.8707622740494965e6, 1.8782776844920192e6, 1.8440930496534484e6, 1.8734306095947346e6, 1.8412045582749515e6, 1.8671471412675048e6, 1.8568049245903902e6, 1.8896569628448107e6, 1.8657389116576721e6, 1.8821845062629553e6, 1.9116993975948207e6, 1.8609885854903015e6, 1.829799655349147e6, 1.8323667419207026e6, 1.8479346259350982e6, 1.883449653339258e6, 1.8377200002163642e6, 1.8555305223375147e6, 1.8653057159858285e6, 1.8440156070749646e6, 1.8503140153975969e6, 1.8502397967703585e6, 1.8594013673552116e6, 1.8407916652970242e6, 1.8840993124158476e6, 1.8595823372254244e6, 1.838667148461489e6, 1.8857549948597848e6, 1.8505525042165155e6, 1.8565085747178518e6, 1.8567726937186655e6, 1.8388189195431334e6, 1.8765888967801558e6, 1.854085241414632e6, 1.83200363263164e6, 1.8516311063601682e6, 1.844580687812792e6, 1.847272836271944e6, 1.8291338982439975e6, 1.862107036031911e6, 1.8677786052956856e6, 1.854940899347792e6, 1.8268323544877165e6, 1.8618140698269329e6, 1.8316483586409804e6, 1.866384216145166e6, 1.8362580556821225e6, 1.8698315556663433e6, 1.8821944919388292e6, 1.8469613826079534e6, 1.8558111549220285e6, 1.8420761079860174e6, 1.8838673164186282e6, 1.869416559112122e6, 1.899513814414493e6, 1.8563962087181022e6, 1.8684348100175706e6, 1.860397455107105e6, 1.8730054081661107e6, 1.84351326516548e6, 1.8428357025188853e6, 1.861366241432345e6, 1.8905869768319167e6, 1.820491406117865e6, 1.8519096009685562e6, 1.845900077324418e6, 1.863613981336071e6, 1.8605625904082903e6, 1.8833737483150596e6, 1.8789005852471832e6, 1.8783351625794175e6, 1.8867115925920606e6, 1.8281166628038143e6, 1.860038553111672e6, 1.8531487189065265e6, 1.840097320885082e6, 1.857988929224734e6, 1.7850374835736968e6, 1.8253251444611077e6, 1.833284623250955e6, 1.8473736810317934e6, 1.8688323274094737e6, 1.827449445556473e6, 1.8587218499408725e6, 1.860868798662421e6, 1.8603700694653527e6, 1.850536465179032e6, 1.8337410073370389e6, 1.8121924332078493e6, 1.8477992128968504e6, 1.8502995119777177e6, 1.8152548109431285e6, 1.8662496511346677e6, 1.8548908087610481e6, 1.8363007860238908e6, 1.8462205860586374e6, 1.8425159116065481e6, 1.8277543043903327e6, 1.8405681915162278e6, 1.8191346206321337e6, 1.8491901653418946e6, 1.8918015055503203e6, 1.8503548131709152e6, 1.8356043995491993e6, 1.871196158354192e6, 1.8198265200210288e6, 1.838902147948966e6, 1.862368979210479e6, 1.8669924259285813e6, 1.8431201955967867e6, 1.8526831226329769e6, 1.8437017297090122e6, 1.8510016902550668e6, 1.815945704103708e6, 1.8673271022343305e6, 1.8464406576438074e6, 1.8234638294268483e6, 1.8453599793693575e6, 1.8311682925180446e6, 1.8598519334013788e6, 1.8316896695240194e6, 1.8454516882331672e6, 1.8197050918448651e6, 1.8519712407186404e6, 1.8414475048058387e6, 1.8439190539642419e6, 1.8239987826827897e6, 1.8700994284400882e6, 1.8498770368999632e6, 1.8435719795657618e6, 1.8203124225915468e6, 1.8264875716901943e6, 1.8345970039142948e6, 1.8512684091135093e6, 1.8506780843531333e6, 1.8409827774328678e6, 1.8589875263530235e6, 1.8070092870896445e6, 1.8461547900185303e6, 1.8210078242930782e6, 1.819154704395403e6, 1.8487344141709409e6, 1.874330267087286e6, 1.8175469830948908e6, 1.8407059828662265e6, 1.8446382803907031e6, 1.8591952909335857e6, 1.8087416889092373e6, 1.854801928387004e6, 1.8544934039106031e6, 1.8497838583702177e6, 1.8269285577027998e6, 1.8596942089068766e6, 1.8211695964521323e6, 1.8599554094603441e6, 1.8283435493184754e6, 1.8379422708159902e6, 1.8543573880902375e6, 1.8679684645803089e6, 1.8599016429562548e6, 1.916009440576895e6, 1.8198589932131486e6, 1.8512643969432693e6, 1.8433814335198286e6, 1.8919218975991947e6, 1.82612685624797e6, 1.8255125084717323e6, 1.850224257614822e6, 1.8203596221928245e6, 1.8360184706946313e6, 1.8287342365192627e6, 1.854904464444871e6, 1.85336412054046e6, 1.8279454649235976e6, 1.828646177539447e6, 1.8183761885337029e6, 1.842541030604057e6, 1.8492413829741017e6, 1.8412123983593201e6, 1.8446687628849095e6, 1.828328658386574e6, 1.8374172136991522e6, 1.8437759415745519e6, 1.8301493034006287e6, 1.8165895810915173e6, 1.8442369663107253e6, 1.8356632644184039e6, 1.861091291224733e6, 1.825071850512602e6, 1.8520610323807488e6, 1.8345194071665e6, 1.8604097322651036e6, 1.8265540106499183e6, 1.8458763772235226e6, 1.8630491985800501e6, 1.8052140509762715e6, 1.837432982646472e6, 1.8441496655012553e6, 1.84083023608076e6, 1.8472269001820744e6, 1.8320749900617301e6, 1.8524838774805984e6, 1.833586493441625e6, 1.8277754863715933e6, 1.8405618779381798e6, 1.8489335414413966e6, 1.826823709141871e6, 1.8650807437587788e6, 1.8502185983922929e6, 1.8220380884476427e6, 1.8339988143968333e6, 1.847783189039492e6, 1.8421556084778411e6, 1.8326518477873723e6, 1.8411782736616698e6, 1.8264086326242588e6, 1.8557566904840185e6, 1.854719973456564e6, 1.8469775094921654e6, 1.8391359385759134e6, 1.8349125653733534e6, 1.8448143380794046e6, 1.847595746659021e6, 1.836217648260106e6, 1.841680320818014e6, 1.8103730093881208e6, 1.8336681204186694e6, 1.8190934659615206e6, 1.8344966482667644e6, 1.8607375376259312e6, 1.8268324661363151e6, 1.8354763907764694e6, 1.8586696589355723e6, 1.8276491278898295e6, 1.8363003317560933e6, 1.8589178687223177e6, 1.8295871683230423e6, 1.8483107621154867e6, 1.8463888389999864e6, 1.836784571775554e6, 1.866645104645242e6, 1.8262099514216841e6, 1.8626335755631505e6, 1.8273656596888406e6, 1.83717249557859e6, 1.832826775176785e6, 1.8407497100431256e6, 1.8504790581631297e6, 1.83792905665673e6, 1.8455334464771773e6, 1.8194364965249521e6, 1.813830120360319e6, 1.826326213026499e6, 1.8250455249693636e6, 1.8113987204798858e6, 1.8615872782902368e6, 1.8378170594623615e6, 1.8400366302207932e6, 1.832919372055657e6, 1.816929898199951e6, 1.8476391134001985e6, 1.8583184378271692e6, 1.8558248480539427e6, 1.83957086879687e6, 1.849030904309034e6, 1.8508891316176269e6, 1.840818444690495e6, 1.8484080125030307e6, 1.857360338679027e6, 1.8459758291639828e6, 1.84303159820328e6, 1.8460655233009101e6, 1.8276447279987396e6, 1.860353960827286e6, 1.8284348557656724e6, 1.8414168751356879e6, 1.825168386932846e6, 1.8513329726282372e6, 1.8551611734830588e6, 1.8642192320037468e6, 1.8269972022169232e6, 1.8292297570467524e6, 1.826609228739847e6, 1.8291429311219838e6, 1.8412625157574294e6, 1.834541514139463e6, 1.8330795792383836e6, 1.8410978838246139e6, 1.8319967334235462e6, 1.8533886691617013e6, 1.8397642647331771e6, 1.823859168063759e6, 1.869011052419339e6, 1.835022770070008e6, 1.8358258998311234e6, 1.8054068648300664e6, 1.8345486340471907e6, 1.8138278503975968e6, 1.8175604282828376e6, 1.8550928090723637e6, 1.8611607667340047e6, 1.822993237302068e6, 1.8485596210399384e6, 1.8400664156377828e6, 1.8270260600519704e6, 1.8395189056296092e6, 1.8368847386871693e6, 1.8361819110097748e6, 1.8478750673224465e6, 1.831717839954913e6, 1.8557290884691598e6, 1.840675799421463e6, 1.8270249497121542e6, 1.8490406250098275e6, 1.8472000301217507e6, 1.864456714156279e6, 1.8285654872784782e6, 1.842595374364208e6, 1.8634313506765983e6, 1.8163605868603815e6, 1.8378870352060099e6, 1.8316333954047617e6, 1.8515612122424988e6, 1.8195591154111668e6, 1.8490735494920132e6, 1.8544577437216297e6, 1.8452912204178348e6, 1.8754500456627368e6, 1.8449744135448176e6, 1.8485623447882875e6, 1.8560152851059274e6, 1.8086922907687228e6, 1.843095630751009e6, 1.847790347141323e6, 1.8597935008849993e6, 1.8669139840231654e6, 1.8387973914654413e6, 1.842002301034858e6, 1.8521853905800395e6, 1.8530159434343919e6, 1.8307268308043831e6, 1.8330686209561175e6, 1.8366861099064222e6, 1.834527451121154e6, 1.8544977638171164e6, 1.8200119864662238e6]</t>
   </si>
   <si>
-    <t>[3.3974320888519287, 7.521306037902832, 10.605188131332397, 13.472001075744629, 16.72344207763672, 20.134675979614258, 23.24205207824707, 27.990818977355957, 31.684688091278076, 35.151840925216675, 38.89322304725647, 42.67692804336548, 45.65401101112366, 51.74915099143982, 54.99735498428345, 58.51280212402344, 62.42846202850342, 65.82266116142273, 68.69322896003723, 71.86477398872375, 75.87939095497131, 78.94127607345581, 83.63115906715393, 86.78132796287537, 91.11333298683167, 93.72645211219788, 96.35094213485718, 99.46858596801758, 102.65755701065063, 105.86671710014343, 108.55096793174744, 111.0705919265747, 114.34689998626709, 117.59541010856628, 120.44816303253174, 123.46303701400757, 125.91493606567383, 130.60997104644775, 134.21757912635803, 137.35549211502075, 140.55400705337524, 143.8606560230255, 147.34267807006836, 150.00274801254272, 153.28268098831177, 157.37224912643433, 160.3692970275879, 163.40137314796448, 166.3475329875946, 169.22265315055847, 171.79109907150269, 174.3973159790039, 178.10591101646423, 180.8716859817505, 184.2547481060028, 187.06869411468506, 189.78037810325623, 192.57822513580322, 194.73974800109863, 198.6432330608368, 201.25019097328186, 203.5747799873352, 206.3327009677887, 208.86883902549744, 211.42859601974487, 213.84472703933716, 216.1919810771942, 218.34725713729858, 220.7734079360962, 223.86089897155762, 226.37658309936523, 228.63027596473694, 230.81078100204468, 233.2830810546875, 235.6913299560547, 238.07006406784058, 240.46510195732117, 242.80681204795837, 245.7657859325409, 248.03608298301697, 250.33198499679565, 253.18126702308655, 255.5211889743805, 258.464478969574, 261.37053203582764, 263.640830039978, 265.9283330440521, 268.34454011917114, 270.5663859844208, 273.4460971355438, 276.09472703933716, 278.510733127594, 280.7891011238098, 283.4535119533539, 285.73940110206604, 288.17726397514343, 290.5942530632019, 292.9965350627899, 295.6663510799408, 298.4911861419678, 300.7304401397705, 303.9208040237427, 306.96147298812866, 309.2908010482788, 312.14310002326965, 314.41101813316345, 317.0541191101074, 319.5473599433899, 322.56101512908936, 324.79149293899536, 327.19396901130676, 329.7437241077423, 332.38556599617004, 334.8318221569061, 337.4695870876312, 340.00640892982483, 342.91018414497375, 345.173602104187, 347.43680810928345, 349.74899196624756, 352.2604241371155, 354.66528701782227, 357.0800790786743, 359.43975615501404, 362.44359493255615, 365.7119450569153, 368.16561102867126, 371.3040590286255, 373.6876411437988, 376.41483998298645, 379.3661961555481, 381.74974393844604, 384.142902135849, 386.43832206726074, 389.1139659881592, 391.96506905555725, 394.6991550922394, 397.1930730342865, 399.56474900245667, 402.0375909805298, 404.53634309768677, 406.9423589706421, 409.23602294921875, 411.5374479293823, 413.78934597969055, 416.0356111526489, 418.34707403182983, 420.8464629650116, 423.296590089798, 426.06584000587463, 428.6664471626282, 430.9461431503296, 433.3311970233917, 436.0285520553589, 438.53521704673767, 441.43657302856445, 443.69266295433044, 445.9647901058197, 448.361624956131, 450.6570689678192, 453.0129930973053, 455.27299094200134, 457.5602481365204, 459.85893201828003, 462.26810097694397, 464.53532695770264, 466.9391191005707, 469.55613112449646, 472.69091796875, 474.95924401283264, 477.4124901294708, 479.8912169933319, 482.3266580104828, 485.3746840953827, 487.6938500404358, 490.0163960456848, 492.3816509246826, 494.8156590461731, 497.06219816207886, 499.31960701942444, 501.6987781524658, 504.0542941093445, 506.3550269603729, 508.65551114082336, 510.8785710334778, 513.1214809417725, 515.360386133194, 517.639081954956, 519.8842520713806, 522.0687191486359, 524.2682409286499, 526.5126900672913, 528.8122401237488, 531.1326291561127, 533.5639259815216, 535.8623380661011, 538.2314579486847, 540.4912581443787, 542.8072481155396, 545.0992801189423, 547.396537065506, 549.6737711429596, 552.0053420066833, 554.2803390026093, 556.6457409858704, 558.918713092804, 561.2524650096893, 563.4947760105133, 565.9130561351776, 568.1306550502777, 570.4799470901489, 572.9866600036621, 575.4069330692291, 578.9966080188751, 581.9503500461578, 584.2990620136261, 586.580512046814, 588.9169371128082, 591.2385399341583, 593.5131330490112, 595.7741539478302, 598.0639100074768, 600.3477251529694, 602.5860719680786, 604.8598771095276, 607.1412761211395, 609.462522983551, 611.7221801280975, 613.9793059825897, 616.2200601100922, 618.5817530155182, 620.8432059288025, 623.0716071128845, 625.3078060150146, 627.4856629371643, 629.7345700263977, 631.9793200492859, 634.2385301589966, 636.4824950695038, 638.7157180309296, 640.9565460681915, 643.2392539978027, 645.4902319908142, 647.7589931488037, 650.0165591239929, 652.265387058258, 654.4919500350952, 656.7379570007324, 659.0137801170349, 661.2096631526947, 663.4264841079712, 665.731339931488, 668.0122511386871, 670.2746729850769, 672.5313010215759, 674.813719034195, 677.0397961139679, 679.2762989997864, 681.5497660636902, 683.8382909297943, 686.1254830360413, 688.4176959991455, 690.6961829662323, 692.9419810771942, 695.225662946701, 697.5047061443329, 699.7534010410309, 702.034744977951, 704.3400580883026, 706.5933380126953, 708.8706679344177, 711.1115870475769, 713.4363000392914, 715.7009029388428, 718.0041799545288, 720.256597995758, 722.5098741054535, 724.7735371589661, 727.0403859615326, 729.2936871051788, 731.6411480903625, 733.9068291187286, 736.1849980354309, 738.5123150348663, 740.7715830802917, 743.0538599491119, 745.3358881473541, 747.572508096695, 749.8495950698853, 752.1786301136017, 754.4966831207275, 756.8000090122223, 759.0716209411621, 761.3364069461823, 763.6303391456604, 765.8993179798126, 768.220920085907, 770.4971859455109, 772.7868480682373, 775.0566890239716, 777.2750561237335, 779.6039271354675, 781.8957970142365, 784.2298309803009, 786.4960219860077, 788.753219127655, 791.2043581008911, 793.5386741161346, 795.890053987503, 798.2279150485992, 800.5252261161804, 802.8515870571136, 805.0770771503448, 807.3973820209503, 809.7504119873047, 812.1391990184784, 814.4801321029663, 816.8075850009918, 819.1156480312347, 821.4479961395264, 823.759360074997, 826.0695250034332, 828.3559551239014, 830.6729869842529, 833.0152051448822, 835.3467180728912, 837.6380219459534, 839.9232850074768, 842.1987860202789, 844.4618830680847, 846.7357020378113, 849.076110124588, 851.3768200874329, 853.6840369701385, 855.9554641246796, 858.2227511405945, 860.5201230049133, 862.8265070915222, 865.0774960517883, 867.3755960464478, 869.6163890361786, 871.9144361019135, 874.1968779563904, 876.5314929485321, 878.8376269340515, 881.1496629714966, 883.5356171131134, 885.7901029586792, 888.1060659885406, 890.3180949687958, 892.5974299907684, 894.8902499675751, 897.1674449443817, 899.5011250972748, 901.7688231468201, 904.0170841217041, 906.3687131404877, 908.6590349674225, 910.9022080898285, 913.1936731338501, 915.4483749866486, 917.8066029548645, 920.0522360801697, 922.3763930797577, 924.6455979347229, 926.9323799610138, 929.2265441417694, 931.4888081550598, 933.7403211593628, 936.0420351028442, 938.3198609352112, 940.6522500514984, 942.9874091148376, 945.242063999176, 947.5441069602966, 949.8378081321716, 952.1723890304565, 954.4947350025177, 956.7833890914917, 959.137323141098, 961.4337501525879, 963.7486550807953, 966.0970630645752, 968.3429679870605, 970.694540977478, 972.9452691078186, 975.2916641235352, 977.6108739376068, 979.931333065033, 982.1777091026306, 984.4777619838715, 986.7616379261017, 989.0913560390472, 991.3600709438324, 993.6985549926758, 996.0194759368896, 998.2985680103302, 1000.5924241542816, 1002.8876900672913, 1005.1276350021362]</t>
+    <t>[2.309689998626709, 5.675163984298706, 8.110878944396973, 10.42052412033081, 13.119258165359497, 16.106130123138428, 18.833815097808838, 22.88491702079773, 26.078048944473267, 28.92668104171753, 32.05670094490051, 35.25305414199829, 37.879987955093384, 43.10546612739563, 45.944256067276, 48.979029178619385, 52.39850211143494, 55.2484929561615, 57.846572160720825, 60.55977916717529, 63.90023994445801, 66.54047012329102, 70.41219210624695, 73.06147813796997, 76.5646071434021, 78.82623314857483, 80.94911599159241, 83.36419606208801, 86.05621695518494, 88.68619012832642, 91.01405501365662, 93.19335794448853, 95.93824100494385, 98.75975704193115, 101.32194399833679, 103.94450807571411, 106.12158417701721, 110.01532101631165, 113.18032908439636, 115.89765501022339, 118.68787097930908, 121.54927611351013, 124.41790008544922, 126.72521209716797, 129.46275997161865, 132.96096301078796, 135.5628890991211, 138.1432330608368, 140.65883708000183, 143.19279098510742, 145.43192410469055, 147.761244058609, 150.86066317558289, 153.2301321029663, 156.14865803718567, 158.4805030822754, 160.7646040916443, 163.48633098602295, 165.5821361541748, 168.9871950149536, 171.55126309394836, 173.85400295257568, 176.5912070274353, 179.08033204078674, 181.58427000045776, 183.99695897102356, 186.28550004959106, 188.43009114265442, 190.82732701301575, 193.90940308570862, 196.3970501422882, 198.6955759525299, 200.87984013557434, 203.38199496269226, 205.82909202575684, 208.15803408622742, 210.60213804244995, 212.92444801330566, 215.8917350769043, 218.17184615135193, 220.46252012252808, 223.28463506698608, 225.6596519947052, 228.59107303619385, 231.50393295288086, 233.78316116333008, 236.08273005485535, 238.51788115501404, 240.74792408943176, 243.62286114692688, 246.28677797317505, 248.72636008262634, 251.00586915016174, 253.70864605903625, 256.00662994384766, 258.45509815216064, 260.9039649963379, 263.2718811035156, 265.9503450393677, 268.7855131626129, 271.0348570346832, 274.22113013267517, 277.25528502464294, 279.567764043808, 282.4153940677643, 284.6980640888214, 287.3199291229248, 289.8250951766968, 292.85083508491516, 295.0755310058594, 297.4712610244751, 300.0490810871124, 302.7147090435028, 305.163889169693, 307.8279631137848, 310.2882561683655, 313.0766251087189, 315.3254280090332, 317.5329921245575, 319.8006510734558, 322.279452085495, 324.6474709510803, 327.036838054657, 329.38894605636597, 332.3853690624237, 335.607782125473, 338.04376101493835, 341.17886900901794, 343.58516907691956, 346.31845808029175, 349.2772891521454, 351.66080498695374, 354.0427031517029, 356.3722560405731, 359.0694260597229, 361.89832305908203, 364.7253179550171, 367.2079429626465, 369.58727502822876, 372.2894129753113, 374.8370611667633, 377.3233439922333, 379.6584801673889, 382.01439905166626, 384.3400490283966, 386.6161961555481, 388.9982650279999, 391.55172896385193, 394.0634310245514, 396.9072799682617, 399.5742950439453, 401.9082989692688, 404.3342800140381, 407.11165714263916, 409.7136490345001, 412.66663694381714, 414.9877829551697, 417.30852699279785, 419.7659101486206, 422.12866497039795, 424.5032949447632, 426.83376002311707, 429.1757299900055, 431.5319609642029, 434.0085241794586, 436.3453290462494, 438.81425309181213, 441.5071051120758, 444.71708607673645, 447.0301170349121, 449.50354504585266, 452.0677709579468, 454.5542290210724, 457.6501250267029, 460.0266079902649, 462.41738200187683, 464.82971715927124, 467.32373309135437, 469.60155510902405, 471.90879011154175, 474.3454830646515, 476.7216601371765, 479.0816550254822, 481.4454040527344, 483.6937870979309, 485.94180703163147, 488.2274010181427, 490.5672149658203, 492.87627696990967, 495.1075360774994, 497.34796595573425, 499.63039803504944, 501.9908540248871, 504.37186098098755, 506.8563640117645, 509.2455871105194, 511.6750180721283, 513.9750759601593, 516.3804130554199, 518.7255461215973, 521.0852119922638, 523.4264440536499, 525.7933909893036, 528.1300849914551, 530.5558409690857, 532.9217841625214, 535.3065960407257, 537.6021070480347, 540.0764400959015, 542.3536710739136, 544.646201133728, 547.2070100307465, 549.6940650939941, 553.1943409442902, 556.1253280639648, 558.5298070907593, 560.8315720558167, 563.2134771347046, 565.5598430633545, 567.8739321231842, 570.1883311271667, 572.5111980438232, 574.833181142807, 577.1033480167389, 579.4113709926605, 581.7769379615784, 584.1347391605377, 586.4343330860138, 588.7394609451294, 591.0084271430969, 593.4110951423645, 595.6990020275116, 597.9930410385132, 600.265743970871, 602.4790699481964, 604.7758100032806, 607.0666921138763, 609.3834969997406, 611.688462972641, 613.9673869609833, 616.2727761268616, 618.5864181518555, 620.8977780342102, 623.1877751350403, 625.4741041660309, 627.7763140201569, 630.0384860038757, 632.348953962326, 634.6545560359955, 636.8916370868683, 639.1515281200409, 641.5113041400909, 643.8383009433746, 646.1264481544495, 648.3946580886841, 650.7807760238647, 653.0566961765289, 655.3610010147095, 657.6598181724548, 659.9770591259003, 662.3148441314697, 664.6416330337524, 666.9921820163727, 669.2689261436462, 671.5899460315704, 673.9065511226654, 676.1986541748047, 678.5236830711365, 680.8775141239166, 683.1660311222076, 685.4713089466095, 687.7497770786285, 690.1109321117401, 692.4338481426239, 694.7159011363983, 697.000983953476, 699.3076591491699, 701.5934841632843, 703.9031369686127, 706.1758141517639, 708.5214221477509, 710.8350231647491, 713.1619009971619, 715.5292060375214, 717.840145111084, 720.1370079517365, 722.4375989437103, 724.7281520366669, 727.0496730804443, 729.4169969558716, 731.7197880744934, 734.0423159599304, 736.3767321109772, 738.6841561794281, 741.0054671764374, 743.3216359615326, 745.6595840454102, 747.9807131290436, 750.3081769943237, 752.6178431510925, 754.8927531242371, 757.243793964386, 759.5707910060883, 761.9740509986877, 764.2809669971466, 766.5715651512146, 768.8901951313019, 771.178838968277, 773.5207130908966, 775.8851270675659, 778.1952390670776, 780.5195291042328, 782.7596869468689, 785.084076166153, 787.4946739673615, 789.9236431121826, 792.2507331371307, 794.6125621795654, 796.9216339588165, 799.26127409935, 801.5965421199799, 803.8970141410828, 806.2182021141052, 808.5481631755829, 810.8984570503235, 813.272919178009, 815.580502986908, 817.8767640590668, 820.1806089878082, 822.5185210704803, 824.8447940349579, 827.2090041637421, 829.538253068924, 831.8719460964203, 834.1867001056671, 836.4973080158234, 838.8349831104279, 841.1800169944763, 843.4428720474243, 845.8306720256805, 848.1127841472626, 850.445582151413, 852.7680020332336, 855.1322751045227, 857.4925291538239, 859.8418140411377, 862.2170951366425, 864.5222589969635, 866.8568060398102, 869.0958571434021, 871.4319660663605, 873.7205829620361, 876.0209610462189, 878.457827091217, 880.7597739696503, 883.0943109989166, 885.6360969543457, 887.9752299785614, 890.2788469791412, 892.6021671295166, 894.9223990440369, 897.3426790237427, 899.6186711788177, 902.008218050003, 904.2984790802002, 906.6573960781097, 908.9791550636292, 911.3008279800415, 913.5859141349792, 915.9297389984131, 918.2482800483704, 920.6236989498138, 922.9981939792633, 925.3123171329498, 927.6525621414185, 929.9928550720215, 932.3817210197449, 934.7118880748749, 937.0297820568085, 939.3593411445618, 941.7070760726929, 944.0610530376434, 946.4312529563904, 948.6979801654816, 951.0666630268097, 953.3800020217896, 955.7845220565796, 958.1392681598663, 960.4901320934296, 962.7798290252686, 965.1010520458221, 967.455705165863, 969.8103539943695, 972.0941841602325, 974.4203870296478, 976.7482841014862, 979.0819940567017, 981.41366314888, 983.7337119579315, 986.0072569847107]</t>
   </si>
   <si>
     <t>RDDIP.LagrangianConicDuality{Nothing}(nothing)</t>
   </si>
   <si>
-    <t>[1.4078489521267714e6, 1.468291155225186e6, 1.5362037726499736e6, 1.5934352181582456e6, 1.6909788747114236e6, 1.7074778077497734e6, 1.7098904777637222e6, 1.7112174280899991e6, 1.7208177869700962e6, 1.731364505616221e6, 1.7330508585520303e6, 1.734890535403167e6, 1.7367286086875906e6, 1.752207573859108e6, 1.7600465605340134e6, 1.7613717661034337e6, 1.7617096331512216e6, 1.7644975953323536e6, 1.765814851562874e6, 1.770024550447156e6, 1.7773344469104726e6, 1.779833730227283e6, 1.7801107527926164e6, 1.7801768508100063e6, 1.7804621611487325e6, 1.7807712608279246e6, 1.7831003071119615e6, 1.7836430201438402e6, 1.7836629899547382e6, 1.783767041313346e6, 1.7838760792259395e6, 1.7839670139520199e6, 1.7859737824849868e6, 1.786924557042824e6, 1.7892921454962261e6, 1.789405993351046e6, 1.7903955680262463e6, 1.7914312367528754e6, 1.7921099275233762e6, 1.792699864386776e6, 1.79354480848069e6, 1.7941946895259724e6, 1.7972477112462583e6, 1.7976264036159082e6, 1.7976446997890356e6, 1.7992998607809783e6, 1.7998818822538934e6, 1.8004654469225076e6, 1.800675315189859e6, 1.8010696418929012e6, 1.802704125431914e6, 1.8030283292077424e6, 1.8031426879072576e6, 1.8039281094383602e6, 1.8040593701709516e6, 1.8045419840898507e6, 1.8053900581963093e6, 1.8058166302608955e6, 1.8062996928452512e6, 1.8063909764552598e6, 1.8064310288942552e6, 1.8064574215140278e6, 1.8065258643613728e6, 1.806951512893975e6, 1.8070046596691655e6, 1.807768364234595e6, 1.8077900801241468e6, 1.8082783978041366e6, 1.8085945849442943e6, 1.8094421671337748e6, 1.809543861737973e6, 1.8097156534423665e6, 1.80970445598632e6, 1.8097668406501089e6, 1.81003575201624e6, 1.8107776467707176e6, 1.8108536679203045e6, 1.810919525962628e6, 1.8111477138022734e6, 1.8112059528309156e6, 1.8115012225422335e6, 1.8120167435070341e6, 1.8121854617454743e6, 1.8122746991084095e6, 1.8124046641101039e6, 1.8125392881839033e6, 1.8127417380579615e6, 1.812957965555874e6, 1.8130302492098548e6, 1.8130326781740994e6, 1.8135549703473458e6, 1.8137494123619988e6, 1.8137931346969758e6, 1.8138454942981342e6, 1.8139975274629472e6, 1.814334467827775e6, 1.814358717933423e6, 1.814485960143393e6, 1.8145971115162007e6, 1.8148823881614609e6, 1.8150026337700565e6, 1.8150523629782842e6, 1.8151797311701884e6, 1.8151863209966451e6, 1.8156804769358707e6, 1.8159382990918874e6, 1.8158820448320122e6, 1.8161130737278308e6, 1.8162664107369892e6, 1.816331429118138e6, 1.8163503000818314e6, 1.8166293713362135e6, 1.8166293713362135e6, 1.81677391775045e6, 1.8167691747630527e6, 1.816839402276997e6, 1.817125831140768e6, 1.8171431384842705e6, 1.8173571391543413e6, 1.8174002912371536e6, 1.8175829170448207e6, 1.8176391085184952e6, 1.8178014184746617e6, 1.8176613594995e6, 1.817876457995568e6, 1.8179790075433664e6, 1.8181457098289512e6, 1.8181457098289512e6, 1.8181457098289512e6, 1.8183130863460088e6, 1.8183968538280418e6, 1.8184245041847418e6, 1.8186268380675807e6, 1.8186057871857334e6, 1.8187050604107769e6, 1.818756599881317e6, 1.818756599881317e6, 1.8188197825730336e6, 1.8188647017045394e6, 1.8188647017045391e6, 1.819075034111307e6, 1.8189563576747826e6, 1.8191579109772143e6, 1.8191579109772143e6, 1.8192969509067608e6, 1.8193897792919986e6, 1.8195461466708274e6, 1.8195461466708274e6, 1.81955719325689e6, 1.819732096623337e6, 1.8197523667808203e6, 1.8197865993790503e6, 1.8197865993790503e6, 1.8197865993790503e6, 1.8198333132128934e6, 1.8199832922048932e6, 1.819983292204884e6, 1.819983292204884e6, 1.819983292204884e6, 1.8200338946578267e6, 1.820095770544056e6, 1.8202931436699105e6, 1.820318059542132e6, 1.8203446395876822e6, 1.8203446395892084e6, 1.8203446395892084e6, 1.8203495503657807e6, 1.8203593987797014e6, 1.8205201885387069e6, 1.8205094580986383e6, 1.8205201885387069e6, 1.820682747878395e6, 1.8206827478793627e6, 1.82076781484732e6, 1.82078133269633e6, 1.8207968712386831e6, 1.8207968712386244e6, 1.8209472863341442e6, 1.8209472863341442e6, 1.8209472863341442e6, 1.8209472863341442e6, 1.820959961780711e6, 1.8210014201806886e6, 1.821001420181634e6, 1.8210804372934212e6, 1.8211050747844959e6, 1.8211050747844956e6, 1.8211050747844956e6, 1.8211050747844956e6, 1.8211050747844956e6, 1.8211050747844956e6, 1.8210196992352116e6, 1.8211795005101194e6, 1.8211796215669943e6, 1.8212222656487545e6, 1.8212809010558848e6, 1.8213791308364633e6, 1.8215912155722994e6, 1.821610810296191e6, 1.8216777772866173e6, 1.8216968128117118e6, 1.8217697316254457e6, 1.8217061370866958e6, 1.8217697316254457e6, 1.8217739614803526e6, 1.8218058466509471e6, 1.8218380091973508e6, 1.8218612628230113e6, 1.821903294685613e6, 1.821903294685613e6, 1.821903294685613e6, 1.821931578036386e6, 1.8220486433200783e6, 1.8220256075298467e6, 1.8220486433200783e6, 1.8220777721179049e6, 1.8221442534212123e6, 1.8221985416598155e6, 1.8222132484608851e6, 1.822335269312512e6, 1.8223923334475346e6, 1.8223932286016007e6, 1.8224235824515393e6, 1.8224304222796941e6, 1.8225001049589978e6, 1.8225931001759244e6, 1.8226543866018117e6, 1.8226852621018272e6, 1.8226852621018272e6, 1.8226852621018272e6, 1.8226852621018272e6, 1.8226852621018272e6, 1.8226852621018272e6, 1.8226852621018272e6, 1.8226677109721834e6, 1.822729395035638e6, 1.8227324718834083e6, 1.8227366139555364e6, 1.822736613962326e6, 1.8227514389308963e6, 1.8227514389308963e6, 1.8227514389308963e6, 1.8227514389308963e6, 1.8227514389308963e6, 1.8227514389308963e6, 1.8227514389308963e6, 1.8227514389308963e6, 1.8227514389308963e6, 1.8227514389308963e6, 1.8227514389308963e6, 1.8227514389308963e6, 1.8227514389308963e6, 1.8227536589891394e6, 1.8227536589891394e6, 1.8228353715538532e6, 1.8228559771893627e6, 1.8228559771893627e6, 1.8228559771893627e6, 1.8228737983331168e6, 1.8229977755697677e6, 1.822997775577215e6, 1.822997775577215e6, 1.822997775577215e6, 1.822997775577215e6, 1.822997775577215e6, 1.822997775577215e6, 1.822997775577215e6, 1.82306914720094e6, 1.82306914720094e6, 1.82306914720094e6, 1.82306914720094e6, 1.82306914720094e6, 1.8232082451940742e6, 1.8233090923231894e6, 1.8233090923231894e6, 1.8233090923231894e6, 1.8233090923231894e6, 1.8233090923231894e6, 1.8233090923231894e6, 1.8233090923231894e6, 1.8233090923231894e6, 1.8233090923231894e6, 1.8233090923231894e6, 1.8234290953284758e6, 1.8234290953330197e6, 1.8234290953330197e6, 1.8234290953330197e6, 1.8234290953330197e6, 1.8234720563940064e6, 1.8235467638284205e6, 1.8235096277886627e6, 1.823509627796454e6, 1.8235813723209526e6, 1.8235837515689584e6, 1.8236076528549928e6, 1.8237052477026302e6, 1.8237052477026302e6, 1.8237052477026302e6, 1.8237052477026302e6, 1.8237052477026302e6, 1.8237052477026302e6, 1.8237052477026302e6, 1.8237052477026302e6, 1.8237052477026302e6, 1.8237414757098258e6, 1.823749551503687e6, 1.8238505588114075e6, 1.8238857366094016e6, 1.8238857366094016e6, 1.8238857366094016e6, 1.8238857366094016e6, 1.8238857366094016e6, 1.8238857366094016e6, 1.8238857366094016e6, 1.8238857366094016e6, 1.823937544097471e6, 1.823937544097471e6, 1.823937544097471e6, 1.823937544097471e6, 1.823937544097471e6, 1.823937544097471e6, 1.823937544097471e6, 1.823937544097471e6, 1.8239445291697686e6, 1.824081019769575e6, 1.824174955487083e6, 1.8241749554870778e6, 1.8241964002890727e6, 1.8241964002890727e6, 1.8241964002890727e6, 1.8241964002890727e6, 1.8241964002890727e6, 1.8241964002890727e6, 1.8241964002890727e6, 1.8241964002890727e6, 1.8241964002890727e6, 1.8241964002890727e6, 1.824213393614986e6, 1.824230216884175e6, 1.8242836440228291e6, 1.8242836440228291e6, 1.8242836440228291e6, 1.8243215056634066e6, 1.8243809205999447e6, 1.8245088286923913e6, 1.82451035907451e6, 1.8245417639694023e6, 1.8245315033389295e6, 1.8245315033389295e6, 1.8245315033389295e6, 1.8245315033389295e6, 1.8245315033389295e6, 1.8245315033389295e6, 1.8245315033389295e6, 1.8245315033389295e6, 1.8245315033389295e6, 1.8245315033389295e6, 1.8245315033389295e6, 1.8245315033389295e6, 1.8245315033389295e6, 1.8245315033389295e6, 1.8245315033389295e6, 1.8245417639694023e6, 1.8245417639694023e6, 1.8245417639694023e6, 1.8245417639694023e6, 1.8245417639694023e6, 1.8245417639694023e6, 1.8245417639694023e6, 1.8245417639694023e6, 1.8245417639694023e6, 1.8245417639694023e6, 1.8245417639694023e6, 1.8245417639694023e6, 1.8245417639694023e6, 1.8245417639694023e6, 1.8245417639694023e6, 1.8245417639694023e6, 1.8245417639694023e6, 1.8245417639694023e6, 1.8245417639694023e6, 1.8245417639694023e6, 1.8245435975293894e6, 1.8245435975306204e6, 1.8245844190279613e6, 1.8245844190279613e6, 1.8245844190279613e6, 1.8245844190279613e6, 1.8246124242760965e6, 1.8246124242760965e6, 1.8246124242760965e6, 1.8246124242760965e6, 1.8246124242760965e6, 1.8246124242760965e6, 1.8246124242760965e6, 1.8246124242760965e6, 1.8246124242760965e6, 1.8246124242760965e6, 1.8246124242760965e6, 1.8246888868812018e6]</t>
-  </si>
-  <si>
-    <t>[1.8350314844269806e6, 1.9116531434909364e6, 1.9192281485204631e6, 1.85685692255015e6, 1.9087614725909845e6, 1.8837820856338933e6, 1.9296747554029254e6, 1.9404204640790068e6, 1.919322004787325e6, 1.8783150785188107e6, 1.8869216488470973e6, 1.933855386148078e6, 1.9401321583146865e6, 1.8667217966512747e6, 1.8984192698240308e6, 1.9026470973126043e6, 1.9146144702648392e6, 1.8663262169145022e6, 1.8811617724648411e6, 1.9106296441559482e6, 1.908452453129927e6, 1.8474136709155298e6, 1.9116030635006381e6, 1.843863854917183e6, 1.8993097931998337e6, 1.8884612952668292e6, 1.881703963176267e6, 1.914351098838167e6, 1.9148305755881206e6, 1.895588444353535e6, 1.8833317781852228e6, 1.8687037767504142e6, 1.8650268549638316e6, 1.8761742939041662e6, 1.8579018797398238e6, 1.9254175345026022e6, 1.8241548650233985e6, 1.9229873380575737e6, 1.8744614860249565e6, 1.882425596174006e6, 1.8894321109876377e6, 1.8735317173948698e6, 1.8410346392855698e6, 1.8869901668689481e6, 1.8840171643089075e6, 1.8391919598246133e6, 1.9156615564596893e6, 1.8930028950594405e6, 1.879705819615457e6, 1.9076926031868039e6, 1.8549992544344878e6, 1.8481235904940749e6, 1.8785256291863725e6, 1.8944072581191708e6, 1.8470197004288314e6, 1.8585161244415794e6, 1.8263933893597962e6, 1.899737720815578e6, 1.8617797706896565e6, 1.8716543981888e6, 1.8306526472666764e6, 1.8823630209448396e6, 1.8560199079276812e6, 1.9263154431968667e6, 1.9063958527634428e6, 1.8574233899401964e6, 1.8301170877933803e6, 1.8565800585031894e6, 1.8552369909012285e6, 1.857097109505561e6, 1.852422593286837e6, 1.8834010108403377e6, 1.8974055092718066e6, 1.8420754902642076e6, 1.8340265593420817e6, 1.9041010572862814e6, 1.8338840862498241e6, 1.8863373938068722e6, 1.9019154658943703e6, 1.8633046662322492e6, 1.8522463430173292e6, 1.889448946644709e6, 1.859651959209653e6, 1.8432206518360106e6, 1.8552745093410835e6, 1.8336728178361384e6, 1.8937940332783365e6, 1.865261271369211e6, 1.8326597302632688e6, 1.8601696471127602e6, 1.8522259380500948e6, 1.839349124419401e6, 1.8588474717475974e6, 1.8514684129878816e6, 1.888155524589134e6, 1.8570207092072133e6, 1.8696600148504684e6, 1.845058254713248e6, 1.8517418443906913e6, 1.84766735718829e6, 1.8371070833729384e6, 1.8684905200083638e6, 1.8459927939580348e6, 1.8674739356080438e6, 1.851902594569204e6, 1.8095740435192983e6, 1.878440799408868e6, 1.891219453603099e6, 1.87804915947356e6, 1.8927910197709617e6, 1.8805679310289256e6, 1.8344719508667449e6, 1.8751507283002706e6, 1.840741424030334e6, 1.8438422665882078e6, 1.863091528482316e6, 1.8604700044942298e6, 1.8422340441548044e6, 1.8864317464359945e6, 1.8460468801787572e6, 1.8593196193429546e6, 1.8627856192528603e6, 1.9049508032401158e6, 1.8747285296175762e6, 1.856464721008403e6, 1.8540899230285867e6, 1.8628246388566452e6, 1.8465858811631782e6, 1.8768278287771284e6, 1.861044288220614e6, 1.878964976939977e6, 1.798402625588215e6, 1.8391400545158803e6, 1.8713409926023541e6, 1.8455594295668085e6, 1.8515295840343768e6, 1.840026992610422e6, 1.8851195809510904e6, 1.8456367097177878e6, 1.851697313529987e6, 1.8498026251863693e6, 1.8354342970020988e6, 1.8200120864006516e6, 1.8508777780113914e6, 1.851572762684297e6, 1.845105123006782e6, 1.8733218963339045e6, 1.861396993598119e6, 1.8255029508681307e6, 1.8236649473268092e6, 1.8701634371928144e6, 1.8377936453864172e6, 1.8481529143224044e6, 1.8316642344240155e6, 1.872027033461165e6, 1.8985557322795615e6, 1.8688522807072815e6, 1.8333470155100795e6, 1.8659140684666636e6, 1.8350488379897072e6, 1.8662598927059649e6, 1.8836036356112955e6, 1.9067154332467418e6, 1.8479332951746066e6, 1.8564928731232649e6, 1.8551926892031543e6, 1.8705184890020248e6, 1.8291618377212454e6, 1.864751469564184e6, 1.8522069984910812e6, 1.823716989079558e6, 1.848647017996647e6, 1.855972082621695e6, 1.8673189716662643e6, 1.845542059800919e6, 1.8542886989351576e6, 1.8291441044373147e6, 1.850879036379637e6, 1.868793597330215e6, 1.8441992906450382e6, 1.849668438613073e6, 1.8831334190392303e6, 1.866164412088366e6, 1.8493273274601568e6, 1.8279839601873863e6, 1.8358612848577816e6, 1.855304402173017e6, 1.880419091884436e6, 1.8924491660108056e6, 1.8785882083707878e6, 1.8885718896983017e6, 1.8107538606194095e6, 1.8659715116948374e6, 1.822944541611044e6, 1.8390899266634414e6, 1.869961976839836e6, 1.8823118125250186e6, 1.8231536616070098e6, 1.852826533396031e6, 1.8519595178435852e6, 1.898639870922813e6, 1.83704179671464e6, 1.8650675877271763e6, 1.868106217859375e6, 1.861610607657191e6, 1.8303170505478496e6, 1.8952077056047067e6, 1.8447291417657845e6, 1.87529767340679e6, 1.832720807590417e6, 1.8504192876766818e6, 1.8305858181196293e6, 1.8858694276111615e6, 1.8550510455638168e6, 1.8799448632158793e6, 1.8187088407496605e6, 1.8611204780519686e6, 1.8717938097768654e6, 1.8966611811708778e6, 1.8736605961246097e6, 1.8333506051745384e6, 1.8552633458800581e6, 1.818379572529541e6, 1.8413611954082204e6, 1.8627058384554991e6, 1.8600672978396476e6, 1.854730828762978e6, 1.8333896376982587e6, 1.8275260389013148e6, 1.813585283672573e6, 1.835572115785273e6, 1.8532124639632811e6, 1.916532575348351e6, 1.8691786923752974e6, 1.8495492285622372e6, 1.863793349375014e6, 1.8516703220643972e6, 1.8364844892629622e6, 1.81934393460708e6, 1.8549703212635661e6, 1.8668072533978366e6, 1.8708965375991466e6, 1.8278487652992373e6, 1.853979021038687e6, 1.846181537396533e6, 1.8732876569172828e6, 1.845855688149262e6, 1.884355873915562e6, 1.865408382729009e6, 1.8287516777851651e6, 1.8500391500324544e6, 1.8490962069401585e6, 1.853487547651464e6, 1.8598939773669026e6, 1.8341427373205952e6, 1.8562949884974991e6, 1.8437970336887566e6, 1.8311962358048097e6, 1.8588349314163262e6, 1.858686606291476e6, 1.829816679789016e6, 1.8692995120535302e6, 1.874193681623085e6, 1.8441562928499435e6, 1.840678612444859e6, 1.8495925969625602e6, 1.874563527535834e6, 1.8658590298724917e6, 1.8437779143559432e6, 1.8296981739383584e6, 1.8547492677197624e6, 1.8525617082040748e6, 1.8511659943602048e6, 1.843950249006985e6, 1.8384877714604314e6, 1.8517112868894003e6, 1.8482870772186692e6, 1.834354767613424e6, 1.8441959006001845e6, 1.8207082311167964e6, 1.8387285159060631e6, 1.8224746295981547e6, 1.8535156818324313e6, 1.8869465768742843e6, 1.8390765597754712e6, 1.8341362099286264e6, 1.8887492014780852e6, 1.8389594095540438e6, 1.8411519611799638e6, 1.8722738460532203e6, 1.8298918598135926e6, 1.8542790578943e6, 1.8498280912965382e6, 1.879403694231012e6, 1.873626466833592e6, 1.8317063647118926e6, 1.8655894303000188e6, 1.8280790917646901e6, 1.8391817050945174e6, 1.834516667030273e6, 1.8436590685088143e6, 1.8520504222901396e6, 1.8409810105550557e6, 1.8475293990491133e6, 1.8248148178484293e6, 1.817807052419864e6, 1.8484495627933247e6, 1.8350881814890928e6, 1.8127996346605113e6, 1.872138695157197e6, 1.875766089046277e6, 1.8458737136422496e6, 1.8372997487738717e6, 1.8187176330918288e6, 1.872611716828402e6, 1.859012105077259e6, 1.857511806013386e6, 1.8422605170620596e6, 1.8843604455013028e6, 1.8512920987422583e6, 1.8414347732689194e6, 1.8495611545246313e6, 1.856364430426694e6, 1.847738546102526e6, 1.8538096148871428e6, 1.8575109591843092e6, 1.8321386506333738e6, 1.8706367822685116e6, 1.8286942931145683e6, 1.8398849131562694e6, 1.836872010865108e6, 1.8534997816485416e6, 1.855749974528597e6, 1.8625845142456503e6, 1.8254268985905782e6, 1.8369003509200045e6, 1.8277602472515355e6, 1.8318443617224845e6, 1.8435467123505776e6, 1.8401560005484507e6, 1.8374772387188026e6, 1.8430262915031074e6, 1.8336360203710033e6, 1.8590373515244252e6, 1.8415713810314334e6, 1.8495580775665708e6, 1.8775389401058562e6, 1.840634661594904e6, 1.8445276522015496e6, 1.8075608115202356e6, 1.838405320989422e6, 1.8115034718587648e6, 1.818723281706343e6, 1.8598912157774838e6, 1.8636724373718887e6, 1.845081957191687e6, 1.8501869534564845e6, 1.8396552213272362e6, 1.8218119285208315e6, 1.8542472872581147e6, 1.8398879514924926e6, 1.836507166019092e6, 1.8621909327400466e6, 1.8289232232766303e6, 1.8640273765054182e6, 1.8421718159297311e6, 1.8284696275781693e6, 1.8506980490781094e6, 1.8660359977366077e6, 1.8871234796376217e6, 1.8321159368850882e6, 1.8771325301277281e6, 1.8642248569436476e6, 1.81794722619324e6, 1.8417002834077615e6, 1.8347162739169549e6, 1.8549361199454009e6, 1.8133327490112153e6, 1.8508696359236834e6, 1.8705664349212782e6, 1.8506610390607426e6, 1.8773498596908394e6, 1.8416224143314424e6, 1.8499968896372414e6, 1.8727584863600847e6, 1.8177990256936722e6, 1.8442959375669684e6, 1.8514165804251728e6, 1.860681942744201e6, 1.866591477403983e6, 1.8407600166658983e6, 1.8469728502601716e6, 1.8557242984628438e6, 1.857855098510327e6, 1.8427568900989026e6, 1.8339316977105958e6, 1.8425182261524706e6, 1.8556527047676458e6, 1.858835983721734e6, 1.8241260410897392e6]</t>
-  </si>
-  <si>
-    <t>[6.769325017929077, 12.849819898605347, 17.695703983306885, 22.364310026168823, 27.827989101409912, 33.24472689628601, 40.63915395736694, 45.66692304611206, 52.41995406150818, 58.76926589012146, 65.87950491905212, 73.86631393432617, 82.0192379951477, 90.46385288238525, 98.77750992774963, 106.2092719078064, 114.99497699737549, 121.75416207313538, 130.45429491996765, 138.25113105773926, 146.18952107429504, 154.60466289520264, 163.27603006362915, 170.91522598266602, 179.6309700012207, 188.58928203582764, 197.46769499778748, 206.49981904029846, 215.36164498329163, 224.68968892097473, 234.03302907943726, 242.22766590118408, 249.84331893920898, 258.1352059841156, 266.2470760345459, 275.9929449558258, 284.6539270877838, 294.33822298049927, 303.1658549308777, 311.4256160259247, 319.5861039161682, 327.74487805366516, 336.2085950374603, 344.79054403305054, 352.97129106521606, 361.73040890693665, 371.407497882843, 380.3273289203644, 388.74213099479675, 397.8641369342804, 406.04114389419556, 414.3983540534973, 424.6634268760681, 434.66484904289246, 443.72887206077576, 453.86542987823486, 462.54907393455505, 473.5222718715668, 483.76356506347656, 493.12718200683594, 502.5840458869934, 512.429034948349, 522.0646378993988, 532.0628669261932, 541.7117280960083, 551.5738739967346, 560.7876780033112, 572.0273649692535, 581.7612669467926, 591.7846109867096, 601.685045003891, 611.8887329101562, 622.6556000709534, 632.5916030406952, 641.736664056778, 653.0594809055328, 663.2379748821259, 674.5089778900146, 686.4566478729248, 696.91051197052, 707.4750800132751, 718.2156479358673, 729.6329069137573, 739.4802548885345, 750.41823387146, 761.121279001236, 772.2955749034882, 783.8549389839172, 794.693165063858, 805.3431029319763, 817.4054629802704, 828.4087750911713, 841.020574092865, 851.8005950450897, 863.1029529571533, 874.1856849193573, 885.9614489078522, 897.5187571048737, 908.337788105011, 919.3978190422058, 930.1158468723297, 941.6939210891724, 953.2294299602509, 965.3723330497742, 977.6103999614716, 988.5880370140076, 1000.0097019672394, 1013.2829430103302, 1025.8699989318848, 1037.5353999137878, 1050.6543769836426, 1062.4470670223236, 1074.6554470062256, 1086.3827559947968, 1099.0389559268951, 1111.283648967743, 1124.835825920105, 1137.249813079834, 1150.6069900989532, 1162.756253004074, 1175.3125779628754, 1188.2478339672089, 1200.9681129455566, 1213.3276970386505, 1225.8151578903198, 1238.6982960700989, 1251.967169046402, 1264.273500919342, 1277.5350909233093, 1290.505793094635, 1304.2693960666656, 1317.3533499240875, 1330.8899099826813, 1344.4958980083466, 1357.3992109298706, 1370.0800909996033, 1384.4661769866943, 1397.7107598781586, 1410.9226670265198, 1423.831927061081, 1436.6907320022583, 1450.4476370811462, 1464.4232120513916, 1477.3474838733673, 1490.6445870399475, 1504.5461120605469, 1517.5771160125732, 1530.4591269493103, 1542.9700260162354, 1555.6097359657288, 1568.823776960373, 1582.0442869663239, 1595.1955800056458, 1607.9036469459534, 1621.8190660476685, 1636.4608988761902, 1649.8976440429688, 1662.2799699306488, 1675.7155768871307, 1689.8428819179535, 1704.8102369308472, 1719.4567279815674, 1735.039300918579, 1753.4238889217377, 1767.8567850589752, 1782.2799289226532, 1796.8763220310211, 1811.6469459533691, 1827.0384829044342, 1841.3439710140228, 1855.633192062378, 1872.4091351032257, 1886.539747953415, 1901.9525899887085, 1916.829479932785, 1931.9273629188538, 1945.9734199047089, 1960.9991109371185, 2088.2907168865204, 2103.3670361042023, 2118.181552886963, 2133.861717939377, 2149.8335449695587, 2164.9569449424744, 2183.3272700309753, 2198.5900440216064, 2213.189174890518, 2228.5991718769073, 2245.747045993805, 2263.8350069522858, 2279.4084079265594, 2295.879091978073, 2311.5683810710907, 2327.093498945236, 2342.598901987076, 2358.298642873764, 2373.3092908859253, 2388.780133962631, 2405.0198130607605, 2420.3246490955353, 2516.1730818748474, 2533.62006688118, 2549.327203989029, 2564.151398897171, 2580.7793819904327, 2597.341898918152, 2616.0469360351562, 2632.5033950805664, 2649.989000082016, 2666.7490589618683, 2683.294986963272, 2703.430562019348, 2719.8412079811096, 2735.3590569496155, 2750.814521074295, 2768.9811758995056, 2785.1980259418488, 2858.907658100128, 2900.5265839099884, 2917.857877969742, 2934.5503499507904, 2950.6496000289917, 2969.41095995903, 2986.212292909622, 3034.7131218910217, 3051.0244278907776, 3074.250310897827, 3091.248775959015, 3121.9451489448547, 3139.187572002411, 3156.8443489074707, 3174.865438938141, 3193.015953063965, 3210.603035926819, 3228.6083059310913, 3245.8226730823517, 3263.253630876541, 3289.442967891693, 3306.289699077606, 3323.1563000679016, 3339.157433986664, 3356.2627799510956, 3373.2304549217224, 3393.2740750312805, 3412.702955007553, 3431.020225048065, 3448.5191929340363, 3468.616509914398, 3646.748831987381, 3664.0606989860535, 3682.533817052841, 3699.875011920929, 3717.5553159713745, 3734.790889978409, 3753.00945687294, 3770.0265979766846, 3787.0884580612183, 3804.5230140686035, 3822.052603006363, 3839.4349958896637, 3872.951323032379, 3890.424984931946, 3909.0275180339813, 3927.230742931366, 3944.6418600082397, 3962.796154022217, 3981.220442056656, 3999.3145730495453, 4018.5834929943085, 4037.012638092041, 4055.879462957382, 4074.503010034561, 4092.473594903946, 4142.6917719841, 4173.246219873428, 4192.67577791214, 4211.309449911118, 4230.382014989853, 4248.525604009628, 4265.824551105499, 4315.798948049545, 4336.697278022766, 4355.834678888321, 4461.5113360881805, 4482.282670021057, 4500.500905036926, 4520.1802110672, 4539.330807924271, 4563.641000986099, 4581.500483989716, 4601.634692907333, 4648.301002025604, 4667.863410949707, 4695.009366989136, 4714.625737905502, 4733.804133892059, 4757.720676898956, 4776.544224977493, 4795.546637058258, 4815.312838077545, 4860.763192892075, 4880.979949951172, 4901.954992055893, 4922.181828022003, 4943.276851892471, 4962.871512889862, 5011.86399102211, 5030.218276977539, 5050.960973978043, 5071.583782911301, 5090.949058055878, 5111.444954872131, 5130.711786031723, 5150.391078948975, 5306.966106891632, 5528.384664058685, 5548.898957967758, 5568.404674053192, 5589.561470031738, 5609.842195987701, 5633.332016944885, 5653.622654914856, 5851.378493070602, 5932.036921977997, 5952.688147068024, 5972.243522882462, 5992.371157884598, 6013.105735063553, 6033.073486089706, 6052.880655050278, 6078.140280008316, 6113.638690948486, 6133.552668094635, 6153.169230937958, 6172.742963075638, 6199.800024986267, 6221.015438079834, 6245.173202991486, 6265.960256099701, 6286.34574508667, 6306.745383024216, 6329.391896009445, 6350.564861059189, 6371.582504034042, 6393.0819439888, 6414.7743310928345, 6436.996640920639, 6457.946130990982, 6481.664213895798, 6503.2165060043335, 6525.363588094711, 6549.550481081009, 6653.152750015259, 6674.996196985245, 6702.0848660469055, 6722.209908008575, 6785.97225689888, 7036.917766094208, 7058.500286102295, 7081.056224107742, 7104.123717069626, 7135.107738018036, 7157.244150876999, 7179.373174905777, 7203.640256881714, 7229.75901889801, 7252.58185505867, 7279.42146897316, 7301.665821075439, 7321.9598269462585, 7343.59276509285, 7367.710812091827, 7558.795015096664, 7582.5511739254, 7604.470319032669, 7625.047091960907, 7646.287739992142, 7671.054981946945, 7693.632777929306, 7715.286592006683, 7738.271532058716, 7761.414561033249, 7786.387863874435, 7808.972786903381, 7829.093369007111, 7898.2487189769745, 7957.334130048752, 7979.677051067352, 8001.838758945465, 8024.101083993912, 8047.237468004227, 8069.651340007782, 8096.62459897995, 8119.266107082367, 8141.750830888748, 8171.678323030472, 8195.03878903389, 8218.426393985748, 8240.709748029709, 8942.138355970383]</t>
+    <t>[1.389739766553116e6, 1.4300419087233748e6, 1.471836418058954e6, 1.6098662893889127e6, 1.6488817875432975e6, 1.6573843534777518e6, 1.6694462301993798e6, 1.6707346714514282e6, 1.6931747158765066e6, 1.6986637400040217e6, 1.7084704149218819e6, 1.731143324079469e6, 1.7338876722840902e6, 1.736000791444501e6, 1.7447277206468857e6, 1.7486234556708708e6, 1.7590583969409857e6, 1.7631340117706195e6, 1.7634355326149832e6, 1.7667947947282186e6, 1.7677451224600836e6, 1.768188256086196e6, 1.7681698198674861e6, 1.769071757001533e6, 1.769237928680854e6, 1.771184948302601e6, 1.7732228320032957e6, 1.7795776643818864e6, 1.7796733237985265e6, 1.7809279034992666e6, 1.7810657385608447e6, 1.7812498650353062e6, 1.7822858087277769e6, 1.7841490229027702e6, 1.7866813923280726e6, 1.7883532383518913e6, 1.7887010050344833e6, 1.7887014028096187e6, 1.7888866359813034e6, 1.7900674331073808e6, 1.7908711603932532e6, 1.794003307569691e6, 1.7945903420148676e6, 1.7946891977830785e6, 1.7957576578352791e6, 1.7971664846637913e6, 1.7978105002488806e6, 1.7986967424346316e6, 1.7988400031591225e6, 1.7989295342150156e6, 1.7989909367510779e6, 1.7994424031736543e6, 1.79949775940526e6, 1.8009344660757764e6, 1.8021273809814006e6, 1.8024472093922219e6, 1.8029430545469727e6, 1.804068606828271e6, 1.8041148424108238e6, 1.8053215602694529e6, 1.8056277902219256e6, 1.8061374864479103e6, 1.8065009259334868e6, 1.8067345069859237e6, 1.80709340212245e6, 1.8072329582631234e6, 1.8078175862191622e6, 1.808001428716263e6, 1.8081108322799185e6, 1.808206475717528e6, 1.8091173106805827e6, 1.8107752815276072e6, 1.811067118030174e6, 1.811079422826381e6, 1.8116523230284536e6, 1.8116658476511515e6, 1.812112905680808e6, 1.8122037125542904e6, 1.812415489854527e6, 1.812415489854527e6, 1.8126976736159197e6, 1.8126976736159197e6, 1.8128249023037842e6, 1.8128783720278523e6, 1.8128783720278523e6, 1.8129700170740802e6, 1.8129000297370302e6, 1.8130119578195137e6, 1.8132007095725469e6, 1.8132816607976982e6, 1.8133341280089936e6, 1.813417732434162e6, 1.813697150781608e6, 1.813888698413771e6, 1.814002342408063e6, 1.8142468741475204e6, 1.8144460102533505e6, 1.814842375929763e6, 1.8154508426669452e6, 1.8148954857992206e6, 1.8154690121865089e6, 1.8156933253385283e6, 1.8158533664089323e6, 1.8159423225301874e6, 1.815956640674649e6, 1.816196637972119e6, 1.8162572216662331e6, 1.8163012251209815e6, 1.8163669220180898e6, 1.8163951065719072e6, 1.8164723387542325e6, 1.8164471687427473e6, 1.816708310261753e6, 1.8166863022065074e6, 1.816708310261753e6, 1.8168046474474608e6, 1.816892014762876e6, 1.8168444968174575e6, 1.8169811414296946e6, 1.8169969054482675e6, 1.8170223313628624e6, 1.8170995583486932e6, 1.81730630274635e6, 1.8174929034627806e6, 1.817537115753199e6, 1.8176528509062158e6, 1.8177049201808083e6, 1.817961435897094e6, 1.817961435897094e6, 1.8180044552715642e6, 1.8181325449895673e6, 1.818158069242688e6, 1.818301508610461e6, 1.8183477324962649e6, 1.818424005834246e6, 1.8185876716999148e6, 1.8186892504918922e6, 1.8187640434244308e6, 1.818824063748118e6, 1.8188617097792313e6, 1.8189090051183025e6, 1.8189090051183025e6, 1.8189090051183025e6, 1.8189430200112017e6, 1.8190713250228798e6, 1.8192035013414347e6, 1.8194304155025892e6, 1.8195003951928124e6, 1.8195128769721957e6, 1.8195080384994668e6, 1.8195080384994668e6, 1.8195080384994668e6, 1.8195275510159216e6, 1.8195646362707207e6, 1.8195965804138458e6, 1.8197237336913764e6, 1.8197237336913801e6, 1.8197322909441055e6, 1.819764734664156e6, 1.819764734668064e6, 1.8198044852980215e6, 1.8198120640740034e6, 1.8198638949146825e6, 1.8199333306165908e6, 1.8199523634855188e6, 1.820102267038332e6, 1.8201069010511772e6, 1.820110995793025e6, 1.820110995793025e6, 1.820110995793025e6, 1.8201391895745134e6, 1.820139189577609e6, 1.820139189577609e6, 1.820139189577609e6, 1.820139189577609e6, 1.8201671408649823e6, 1.8202615868345052e6, 1.8202842312046597e6, 1.8202842312046597e6, 1.8203731654386723e6, 1.8203731654386723e6, 1.820522488998897e6, 1.820522488998897e6, 1.820522488998897e6, 1.820522488998897e6, 1.820522488998897e6, 1.8205355132323895e6, 1.8205488971122282e6, 1.8206390416023612e6, 1.8207226609872815e6, 1.8207822542676665e6, 1.8209109661412686e6, 1.8209462818465563e6, 1.8209462818465563e6, 1.8209462818465563e6, 1.8210218457834146e6, 1.8210364272505252e6, 1.8210848226709338e6, 1.8214307731362977e6, 1.821430773142917e6, 1.821430773142917e6, 1.821430773142917e6, 1.8214704169609244e6, 1.821470416961018e6, 1.821470416961018e6, 1.8214775295432515e6, 1.8214815538799223e6, 1.8215025983476555e6, 1.8208182858159621e6, 1.8215616897282167e6, 1.8216389288706626e6, 1.821730441213591e6, 1.8217674166754128e6, 1.8218264775604885e6, 1.8217986058593811e6, 1.821826477560489e6, 1.8218264775659894e6, 1.8218264775659894e6, 1.8218264775659894e6, 1.8218264775659894e6, 1.8218264775659894e6, 1.821830561309397e6, 1.8218391385919154e6, 1.8218944625332355e6, 1.8219079969211174e6, 1.821976218542071e6, 1.8220396482443523e6, 1.8220100267471606e6, 1.8220352946876436e6, 1.8220352946876436e6, 1.822039648244352e6, 1.822039648244352e6, 1.8221058026531837e6, 1.8219642823727084e6, 1.8222601036072234e6, 1.822267917196103e6, 1.8223070576842239e6, 1.8223441999787136e6, 1.8223468261163419e6, 1.8223822573741209e6, 1.8223822573741209e6, 1.8223822573741209e6, 1.8223822573741209e6, 1.8224538249716258e6, 1.82253912049346e6, 1.8225394105694059e6, 1.8225471128971085e6, 1.8225471128971085e6, 1.8225471128971085e6, 1.8225471128971085e6, 1.8225471128971085e6, 1.8225471128971085e6, 1.8225471128971085e6, 1.8225566972580038e6, 1.8225866982088801e6, 1.8226324565051966e6, 1.8225773992653494e6, 1.8225773992653494e6, 1.8225773992653494e6, 1.8226518534332053e6, 1.8226759087490556e6, 1.822699343976469e6, 1.8228281096836273e6, 1.822841656214876e6, 1.8230779120312254e6, 1.8232319659201645e6, 1.8233231769665484e6, 1.8233243938476678e6, 1.8233902906421223e6, 1.8235365919147213e6, 1.8235365919164175e6, 1.8235365919164175e6, 1.8235365919164175e6, 1.8235365919164175e6, 1.8235365919164175e6, 1.8235365919164175e6, 1.8235365919164175e6, 1.8235365919164175e6, 1.8235365919164175e6, 1.8235365919164175e6, 1.8235365919164175e6, 1.8235365919164175e6, 1.8235365919164175e6, 1.8235365919164175e6, 1.8235365919164175e6, 1.8235791280297344e6, 1.8235878132702447e6, 1.8236350660264904e6, 1.823635066032387e6, 1.823635066032387e6, 1.823635066032387e6, 1.823635066032387e6, 1.823635066032387e6, 1.823635066032387e6, 1.823635066032387e6, 1.823635066032387e6, 1.823635066032387e6, 1.823635066032387e6, 1.823635066032387e6, 1.823635066032387e6, 1.823635066032387e6, 1.823635066032387e6, 1.823635066032387e6, 1.823635066032387e6, 1.823635066032387e6, 1.823635066032387e6, 1.823635066032387e6, 1.823635066032387e6, 1.823635066032387e6, 1.823635066032387e6, 1.823635066032387e6, 1.823635066032387e6, 1.823635066032387e6, 1.823635066032387e6, 1.823635066032387e6, 1.823635066032387e6, 1.823635066032387e6, 1.823635066032387e6, 1.823635066032387e6, 1.823635066032387e6, 1.823635066032387e6, 1.823635066032387e6, 1.8236505362549094e6, 1.8236505362549094e6, 1.8236505362549094e6, 1.8236505362549094e6, 1.8236505362549094e6, 1.8236505362549094e6, 1.8236505362549094e6, 1.8236505362549094e6, 1.8236505362549094e6, 1.8236505362549094e6, 1.8236505362549094e6, 1.8236505362549094e6, 1.8236505362549094e6, 1.8236505362549094e6, 1.8236568577750074e6, 1.8236568577750074e6, 1.823661752156625e6, 1.8236617521569082e6, 1.8237054257999004e6, 1.8237059927339982e6, 1.8237656965002294e6, 1.8238047692663912e6, 1.823766449563224e6, 1.823766449563224e6, 1.823766449563224e6, 1.823766449563224e6, 1.823766449563224e6, 1.823766449563224e6, 1.823766449563224e6, 1.823766449563224e6, 1.823766449563224e6, 1.8238047692663912e6, 1.8238047692663912e6, 1.8238047692663912e6, 1.8238047692663912e6, 1.8238047692663912e6, 1.8238047692663912e6, 1.8238697668213998e6, 1.823897575530743e6, 1.8239446972796961e6, 1.8239446972796961e6, 1.8239446972796961e6, 1.8239446972796961e6, 1.82412142340463e6, 1.82412142340463e6, 1.82412142340463e6, 1.82412142340463e6, 1.82412142340463e6, 1.82412142340463e6, 1.82412142340463e6, 1.82412142340463e6, 1.82412142340463e6, 1.82412142340463e6, 1.82412142340463e6, 1.82412142340463e6, 1.82412142340463e6, 1.82412142340463e6, 1.82412142340463e6, 1.82412142340463e6, 1.82412142340463e6, 1.82412142340463e6, 1.82412142340463e6, 1.82412142340463e6, 1.82412142340463e6, 1.82412142340463e6, 1.824142953676168e6, 1.8241459121672057e6, 1.824152210976573e6, 1.824180242060285e6, 1.8241802420606317e6, 1.8241802420606317e6, 1.8241802420606317e6, 1.824217233146467e6, 1.824316373734682e6, 1.8243240561373816e6, 1.8243455412285659e6, 1.8243990328842544e6, 1.8243990328842544e6]</t>
+  </si>
+  <si>
+    <t>[1.8350314844269806e6, 1.9169087779954157e6, 1.9835669362194366e6, 1.83941913317703e6, 1.906162266312645e6, 1.9666865271217176e6, 1.8851762756064811e6, 1.9695689823234852e6, 1.902892741063382e6, 1.8649292262973227e6, 1.917961409373255e6, 1.8943916511020474e6, 1.917099614808401e6, 1.8427990093021316e6, 1.9094557632739253e6, 1.9617964999398068e6, 1.8318909860262023e6, 1.9008501292246464e6, 1.9005893946266526e6, 1.9131238329339663e6, 1.9351270976037749e6, 1.8747202847346573e6, 1.8672967126111826e6, 1.876107300914903e6, 1.9281016320756103e6, 1.8866160803836237e6, 1.8484628903468975e6, 1.8676569850068218e6, 1.8969525179540783e6, 1.883359235924199e6, 1.8637325638925114e6, 1.8642147668190983e6, 1.8552073019066951e6, 1.8547410630178188e6, 1.8798372396367847e6, 1.9024913730721893e6, 1.920487518283453e6, 1.9121336694215902e6, 1.8863454309924033e6, 1.8335322746017065e6, 1.9311677763319556e6, 1.9220147532463614e6, 1.8293796244402577e6, 1.9050465199981788e6, 1.8829758428394264e6, 1.8490995839968775e6, 1.903225851668741e6, 1.9103643065982123e6, 1.886486075865645e6, 1.8814342004731768e6, 1.8567481930036207e6, 1.8734598184115784e6, 1.8748445250822972e6, 1.8593448772153088e6, 1.8674312344165682e6, 1.883643193827389e6, 1.8597403714289248e6, 1.8686028820581774e6, 1.8732591865420246e6, 1.8589614000918202e6, 1.8393773088288151e6, 1.901774754449079e6, 1.8881416939605142e6, 1.9019651465782374e6, 1.881745248216195e6, 1.857920004559012e6, 1.841588675714106e6, 1.8865828469781745e6, 1.8819936547280052e6, 1.8643076217498055e6, 1.8133839132447522e6, 1.8435996340969855e6, 1.8781612628846094e6, 1.886732105255097e6, 1.8569608739518167e6, 1.8608797593513685e6, 1.8606795868284276e6, 1.8444891587907707e6, 1.8573428552702677e6, 1.8561888978254315e6, 1.84321469890687e6, 1.8929539266202687e6, 1.845246714503182e6, 1.896459336589744e6, 1.8413194304405309e6, 1.8386162961111148e6, 1.8750254126699828e6, 1.8767871703043198e6, 1.8611462379685242e6, 1.8343732076287349e6, 1.8242152830456586e6, 1.8441305278493112e6, 1.8474917822290855e6, 1.8335123819640123e6, 1.9022797467819653e6, 1.8801771583609805e6, 1.839294070182213e6, 1.8618391641409283e6, 1.8708624822311508e6, 1.8472884985547867e6, 1.8494738117175156e6, 1.8403371164106021e6, 1.8644154596927264e6, 1.8906538527461423e6, 1.8663341549350128e6, 1.8472675860793018e6, 1.9011773002783393e6, 1.8664927975442244e6, 1.8747494318714184e6, 1.857037311193441e6, 1.8706989629402536e6, 1.8661062276226114e6, 1.8747527422926747e6, 1.8481899258015812e6, 1.8418276707541186e6, 1.8449884468021167e6, 1.8589623579726138e6, 1.8576166331896207e6, 1.8691797581354373e6, 1.8492727562832471e6, 1.8599191083680044e6, 1.8850394833405493e6, 1.9203190882741238e6, 1.8687119893203534e6, 1.8886293149979063e6, 1.8509306690517818e6, 1.8855348846863217e6, 1.876327163033239e6, 1.8562758752957834e6, 1.842450512321838e6, 1.824646362780985e6, 1.800712494959823e6, 1.8288559263584123e6, 1.8749427445983603e6, 1.8461618369753829e6, 1.8580210239751684e6, 1.8690420636088816e6, 1.8653310537250247e6, 1.8465475990315662e6, 1.8572797657862315e6, 1.8597869226396065e6, 1.8620544227097356e6, 1.8205363908233976e6, 1.8722763573026326e6, 1.8588096823060343e6, 1.8231234770166432e6, 1.8749257743871266e6, 1.8914410915779402e6, 1.8655788593252692e6, 1.8456196108418542e6, 1.8485484840489137e6, 1.8318829629736296e6, 1.8805765080000397e6, 1.8547170540815052e6, 1.8656329453210323e6, 1.8470397436346181e6, 1.8555320073869627e6, 1.8377089752188963e6, 1.8682525592661686e6, 1.8571640220302953e6, 1.86990310305447e6, 1.869319467153379e6, 1.8880050047487533e6, 1.866132260577746e6, 1.863208612169448e6, 1.8603755603372296e6, 1.8910537590303707e6, 1.8113047824466901e6, 1.8376477905456852e6, 1.8688316462270422e6, 1.8297243539927378e6, 1.8483199766462273e6, 1.8242381561972948e6, 1.8836201562921163e6, 1.8302861746564284e6, 1.8472279817630446e6, 1.828800149854555e6, 1.8464512712519998e6, 1.8946180230968785e6, 1.8647387026828248e6, 1.8279556081887323e6, 1.8955462628220827e6, 1.8498897455105127e6, 1.8541562656729403e6, 1.8521770435369972e6, 1.8285713722729804e6, 1.8317983334754917e6, 1.8829199700727286e6, 1.8750891499509392e6, 1.8625027248902777e6, 1.8567758575407153e6, 1.818727102940539e6, 1.8458602055055976e6, 1.8441638210703195e6, 1.8367188969063119e6, 1.8506944690337835e6, 1.8856008832534149e6, 1.8294271902877244e6, 1.859180971435508e6, 1.8406358431596884e6, 1.8771018465244146e6, 1.8402926265189024e6, 1.8680300856663734e6, 1.8609940264944856e6, 1.851468417240514e6, 1.8259223428988168e6, 1.890323537299042e6, 1.8326767911205348e6, 1.8583703754823895e6, 1.8455071819845221e6, 1.8344040725650256e6, 1.8330123491035781e6, 1.875203631469582e6, 1.8586349042179983e6, 1.8692718403209597e6, 1.816010888167293e6, 1.8554841196509858e6, 1.850413813229272e6, 1.8882808124869089e6, 1.8267008523848527e6, 1.8431280417523256e6, 1.852307203178051e6, 1.8220938140932422e6, 1.8470832773706743e6, 1.8448466041733902e6, 1.8592429731587556e6, 1.8599570985579025e6, 1.8388421221361372e6, 1.8306345585335344e6, 1.836197704232637e6, 1.845633320031236e6, 1.85387970077184e6, 1.848481022810164e6, 1.8622125575159916e6, 1.8990005985164747e6, 1.8372207558106857e6, 1.847152803307832e6, 1.8853173061328025e6, 1.8480609092416929e6, 1.8527024596923396e6, 1.8329790369126115e6, 1.862872158689943e6, 1.827207631899523e6, 1.8568077482741417e6, 1.854188287033334e6, 1.881688917157924e6, 1.8403498261271662e6, 1.8665749548047185e6, 1.8682647974828088e6, 1.8119284838433985e6, 1.8363836641303536e6, 1.863955890129506e6, 1.8468543081702348e6, 1.8822051494025993e6, 1.8469212814263976e6, 1.8714678028759665e6, 1.8346192630042748e6, 1.830910861517989e6, 1.8478358027973904e6, 1.845924436256971e6, 1.8316420927358298e6, 1.8839876214030518e6, 1.85899618906545e6, 1.8295295439790355e6, 1.831928744998964e6, 1.8730974167946717e6, 1.8523528194325431e6, 1.8654783304048658e6, 1.8678469673973066e6, 1.85895963848357e6, 1.8544160021512432e6, 1.8510321757970003e6, 1.8466735238573567e6, 1.8399333624995549e6, 1.8381009908496821e6, 1.8478999439528435e6, 1.868747488188732e6, 1.8527691564588095e6, 1.8459348185366956e6, 1.8120727807473985e6, 1.8518449184319736e6, 1.8203443666962665e6, 1.8367294487126707e6, 1.8700849802735192e6, 1.8341886205313082e6, 1.8719834269307593e6, 1.910929740388485e6, 1.8469834684679017e6, 1.837639254845668e6, 1.8593369303180694e6, 1.8353720698430822e6, 1.850906711512182e6, 1.8476364847238061e6, 1.8380915825177433e6, 1.86903126588391e6, 1.8292348536493187e6, 1.8635428695799657e6, 1.854581313256364e6, 1.8351244956272393e6, 1.8366202992352908e6, 1.8493324754653603e6, 1.849593828920662e6, 1.8393987249577094e6, 1.867522701648731e6, 1.820316516939446e6, 1.8178702012907304e6, 1.8369626881765036e6, 1.827178815779565e6, 1.844409785420332e6, 1.8634404303367734e6, 1.839885515131286e6, 1.8442238667698693e6, 1.8370139817400868e6, 1.819764816489286e6, 1.8506356153693604e6, 1.9001680821199748e6, 1.8612144903427695e6, 1.8414933817583553e6, 1.879203139375217e6, 1.85278280678558e6, 1.8394232155760862e6, 1.853469649162498e6, 1.857500354510847e6, 1.8527222986603882e6, 1.8465266580100663e6, 1.8545410239658947e6, 1.8333586109364699e6, 1.8627789187324173e6, 1.829088497172939e6, 1.8409889648822597e6, 1.8255259183965605e6, 1.8618821880288336e6, 1.8677842254168743e6, 1.873923647687926e6, 1.8297460654784823e6, 1.8480412364185902e6, 1.8276634222409157e6, 1.8359974977286768e6, 1.8412140344913926e6, 1.8445668151175731e6, 1.8381978200689107e6, 1.8423195312541642e6, 1.8380712039229493e6, 1.8555378160932495e6, 1.8392545591422431e6, 1.8271213480288528e6, 1.878037372307803e6, 1.8389230616910849e6, 1.8495863334503241e6, 1.8027545205665012e6, 1.845579955781873e6, 1.8151874736728633e6, 1.8225623811155746e6, 1.9060197128452864e6, 1.9064796885330437e6, 1.8341714552838283e6, 1.867609102404657e6, 1.8404853212205907e6, 1.8281089950381143e6, 1.855186072984304e6, 1.838048440304614e6, 1.8328175414623788e6, 1.865128185344587e6, 1.831113747440318e6, 1.856038074907511e6, 1.8424199083107987e6, 1.8253849324577122e6, 1.8491238194036975e6, 1.849097232440027e6, 1.8742664242588298e6, 1.859107804574551e6, 1.8427466209033069e6, 1.876032780895265e6, 1.8294565780978152e6, 1.838150490506245e6, 1.832684510326009e6, 1.8521649120341092e6, 1.8181059936619077e6, 1.8608585564948854e6, 1.874395778046509e6, 1.8699843700952278e6, 1.891883961651937e6, 1.8444533388437994e6, 1.849437345560781e6, 1.8617657994814613e6, 1.8100604688983285e6, 1.843921310224774e6, 1.85078519342284e6, 1.8609746517792854e6, 1.8784674108859259e6, 1.8358825283845265e6, 1.8434470490238902e6, 1.8549301206789992e6, 1.8489604142895818e6, 1.8401801748049923e6, 1.8418823922507826e6, 1.8406387438354823e6, 1.8380597245448853e6, 1.8559202788491885e6, 1.8209346044043233e6]</t>
+  </si>
+  <si>
+    <t>[3.859344959259033, 10.199167013168335, 15.056525945663452, 19.243340969085693, 24.622828006744385, 29.78262996673584, 35.30266809463501, 40.5855610370636, 46.13064002990723, 52.537307024002075, 59.44914197921753, 65.91667008399963, 73.13126707077026, 79.48841190338135, 86.07564902305603, 95.23866486549377, 101.70678186416626, 108.61742806434631, 115.44411897659302, 122.5538969039917, 131.41049599647522, 139.6551969051361, 148.0418050289154, 157.24759793281555, 166.58707404136658, 174.49383401870728, 181.9945728778839, 190.13534092903137, 199.69625687599182, 209.06507086753845, 218.58793687820435, 226.3592290878296, 234.08278894424438, 243.42344498634338, 251.5243730545044, 258.8599829673767, 267.7167739868164, 276.0144519805908, 284.0724639892578, 292.0975089073181, 301.648756980896, 310.4794089794159, 317.9422678947449, 327.57269287109375, 336.0095109939575, 344.256315946579, 352.87239694595337, 361.5549509525299, 370.53910207748413, 379.1406750679016, 387.1385440826416, 395.6764690876007, 404.25575494766235, 412.4569239616394, 421.35036396980286, 431.4202859401703, 440.0018050670624, 448.5378849506378, 458.5412690639496, 467.445228099823, 476.21674394607544, 485.52903509140015, 494.7067630290985, 503.8670880794525, 513.2633390426636, 521.9810330867767, 531.2977650165558, 541.3161780834198, 551.5833730697632, 560.1326379776001, 569.1350610256195, 578.4708139896393, 588.2916488647461, 599.6100010871887, 609.1607038974762, 619.4098930358887, 629.5773479938507, 639.9805409908295, 650.1228260993958, 659.3818349838257, 668.8927450180054, 679.2555150985718, 689.8637380599976, 700.1477708816528, 710.3146460056305, 720.9382190704346, 731.3689270019531, 742.6381320953369, 753.8078548908234, 764.3883099555969, 774.8211770057678, 785.9407238960266, 796.0755798816681, 806.6029989719391, 817.439749956131, 828.4534950256348, 838.7752740383148, 849.6713390350342, 861.2372100353241, 871.6853580474854, 882.9419949054718, 893.6404430866241, 905.2006728649139, 917.4644610881805, 930.0168619155884, 941.2107169628143, 952.5468599796295, 964.386342048645, 975.7543358802795, 987.76997590065, 998.8253929615021, 1011.1682770252228, 1023.1825270652771, 1035.488615989685, 1047.4862658977509, 1058.4287278652191, 1070.6009240150452, 1081.9146819114685, 1094.7304890155792, 1106.2902810573578, 1118.3888618946075, 1129.8273899555206, 1143.219999074936, 1155.1048998832703, 1168.4563069343567, 1180.6781270503998, 1193.6536469459534, 1205.7082259654999, 1218.4954810142517, 1230.926843881607, 1243.181977033615, 1255.3562409877777, 1268.798325061798, 1281.6475150585175, 1293.7025079727173, 1306.4761159420013, 1320.4783110618591, 1332.678880929947, 1345.1163430213928, 1357.2594649791718, 1369.8615200519562, 1381.806421995163, 1395.4938390254974, 1408.2905309200287, 1421.128478050232, 1433.1072709560394, 1445.7453780174255, 1458.8999490737915, 1473.5198431015015, 1485.5394010543823, 1497.852576971054, 1510.9593949317932, 1524.9758338928223, 1538.7227919101715, 1552.0693418979645, 1564.935294866562, 1578.5900530815125, 1591.4395189285278, 1604.3883199691772, 1617.405438899994, 1631.6595480442047, 1645.2013709545135, 1659.974997997284, 1674.1483268737793, 1687.8539299964905, 1702.004035949707, 1715.398148059845, 1729.2374370098114, 1742.6530950069427, 1757.5275630950928, 1772.213257074356, 1787.3004260063171, 1800.9597609043121, 1815.8626930713654, 1829.694839000702, 1843.810693025589, 1858.387367963791, 1872.1838459968567, 1886.2525589466095, 1901.9566938877106, 1915.5116670131683, 1930.5608968734741, 1944.286838054657, 1958.3478479385376, 1974.4525399208069, 1989.1750440597534, 2003.2312109470367, 2018.1123631000519, 2032.7624950408936, 2046.903333902359, 2060.8806660175323, 2075.772828102112, 2090.434016942978, 2105.478802919388, 2120.826579093933, 2135.705174922943, 2150.6268820762634, 2165.94944691658, 2180.95866894722, 2195.0455639362335, 2210.3889389038086, 2225.1698019504547, 2239.969460964203, 2254.8119189739227, 2269.714334011078, 2283.438519001007, 2297.7158629894257, 2313.3922278881073, 2328.8119699954987, 2343.9824590682983, 2358.7660360336304, 2373.438234090805, 2389.005912065506, 2404.58952999115, 2419.6613669395447, 2435.2246520519257, 2449.720365047455, 2465.663470029831, 2481.4505240917206, 2497.281641960144, 2513.531212091446, 2528.856062889099, 2545.15722489357, 2561.12370800972, 2576.0823888778687, 2592.241322040558, 2607.870609998703, 2623.6675519943237, 2638.9430770874023, 2654.5039899349213, 2669.8973019123077, 2685.427339076996, 2700.8136880397797, 2716.904685974121, 2733.991457939148, 2750.5804738998413, 2766.304130077362, 2783.344726085663, 2800.1666519641876, 2816.2505769729614, 2832.07385802269, 2847.7380368709564, 2863.974056959152, 2879.899533033371, 2897.610816001892, 2914.353152036667, 2930.312875032425, 2946.6149759292603, 2962.952287912369, 2978.4294419288635, 2994.404969930649, 3009.776689052582, 3025.4128561019897, 3043.0302109718323, 3060.0912458896637, 3077.251247882843, 3094.6838109493256, 3112.147845029831, 3128.03058886528, 3145.5997030735016, 3161.6411530971527, 3179.746412038803, 3197.149514913559, 3215.1932380199432, 3232.1639189720154, 3249.1511430740356, 3265.4461879730225, 3283.562910079956, 3301.3591289520264, 3317.4360930919647, 3334.4577810764313, 3350.8087089061737, 3367.0575470924377, 3383.716120004654, 3400.9535450935364, 3417.45489692688, 3434.739991903305, 3451.702787876129, 3469.5716350078583, 3486.609694957733, 3503.9744079113007, 3521.5226500034332, 3538.5117468833923, 3556.9931349754333, 3574.8407640457153, 3591.4353840351105, 3610.15674495697, 3627.902759075165, 3644.2935469150543, 3661.0000400543213, 3677.95192694664, 3696.5169298648834, 3713.9395389556885, 3732.0618619918823, 3749.9447820186615, 3768.6415469646454, 3786.7021310329437, 3806.8700959682465, 3824.470541000366, 3841.7032129764557, 3858.983817100525, 3878.2474780082703, 3896.2760648727417, 3914.5948219299316, 3932.6471829414368, 3950.16228890419, 3968.944459915161, 3987.3484749794006, 4007.005268096924, 4025.6089260578156, 4044.1732499599457, 4063.398082971573, 4081.2989270687103, 4099.968261003494, 4118.015846967697, 4136.297525882721, 4154.222888946533, 4172.957589864731, 4191.512348890305, 4210.583963871002, 4229.625372886658, 4248.038146972656, 4267.611916065216, 4285.932460069656, 4304.565470933914, 4324.009849071503, 4342.434266090393, 4362.5555720329285, 4381.85017490387, 4400.167825937271, 4419.721545934677, 4439.461250066757, 4459.470144033432, 4479.609894990921, 4497.772010087967, 4516.826498031616, 4536.277545928955, 4555.679725885391, 4575.438589096069, 4595.164855003357, 4613.872653961182, 4633.616164922714, 4653.515121936798, 4673.670439958572, 4693.386240005493, 4714.078983068466, 4735.257771968842, 4755.364650011063, 4775.74196600914, 4796.060105085373, 4815.399417877197, 4835.172874927521, 4855.156563997269, 4875.722639083862, 4896.146761894226, 4916.341113090515, 4936.858645915985, 4956.222639083862, 4975.6429278850555, 4995.352851867676, 5016.628431081772, 5036.750726938248, 5056.486165046692, 5076.449325084686, 5097.136342048645, 5117.290999889374, 5136.830049037933, 5158.002680063248, 5178.830848932266, 5198.71665096283, 5218.935652017593, 5240.216542005539, 5260.835705041885, 5280.763617038727, 5300.7662789821625, 5321.7091500759125, 5341.969372987747, 5362.092243909836, 5382.62535405159, 5402.506063938141, 5424.32341003418, 5444.933613061905, 5465.641011953354, 5485.830626964569, 5507.453559875488, 5618.843134880066, 5639.892508029938, 5659.5296359062195, 5680.707186937332, 5702.875410079956, 5724.298584938049, 5746.660364866257, 5767.152158021927, 5788.100004911423, 5809.730625867844, 5867.302181959152, 5888.222624063492, 5910.415668964386, 5932.620194911957, 5953.492034912109]</t>
   </si>
   <si>
     <t>RDDIP.ContinuousConicDuality{Nothing}(nothing)</t>
@@ -72,7 +72,7 @@
     <t>[1.8350314844269806e6, 1.9150885666642494e6, 1.9429955097499604e6, 1.838620254443415e6, 1.8752275231340423e6, 1.9493976686848684e6, 1.9092720699107414e6, 1.9524182061048918e6, 1.8887192024333111e6, 1.8865157607717821e6, 1.879984752503587e6, 1.9107142864356611e6, 1.8583128276298286e6, 1.9351063664113097e6, 1.9621772451383935e6, 1.898093964365748e6, 1.8702309746269593e6, 1.8946176994732413e6, 1.8774987433404522e6, 1.8853263887473023e6, 1.868741027153446e6, 1.848619029131573e6, 1.8890001471493677e6, 1.8600153415188403e6, 1.9061767763540144e6, 1.8705798799208794e6, 1.8603313509796609e6, 1.8783425112630704e6, 1.899056218245643e6, 1.8302339310976095e6, 1.8510200313196208e6, 1.856508750139361e6, 1.8524853447756094e6, 1.845624328686715e6, 1.898468155667892e6, 1.9064261222501923e6, 1.8325269368151885e6, 1.8485770606058773e6, 1.8535535454397849e6, 1.8901735769273613e6, 1.9027823557550332e6, 1.8800590125239987e6, 1.843390559786502e6, 1.8738379266363354e6, 1.832066429982361e6, 1.887076345396742e6, 1.911744049014936e6, 1.876647292895194e6, 1.876001044385704e6, 1.895993755847325e6, 1.8620400192862777e6, 1.849430096303407e6, 1.8373852553164966e6, 1.8850713386564911e6, 1.8499697316682655e6, 1.8653896939513152e6, 1.8447351134924933e6, 1.9029931199769625e6, 1.8577443372996822e6, 1.836317399270242e6, 1.8226303555062662e6, 1.8812188440349593e6, 1.870498965897014e6, 1.9177969537904973e6, 1.8706743283994303e6, 1.8580130921076967e6, 1.8349014679071496e6, 1.8917208538319047e6, 1.8747883854615428e6, 1.8614586978779135e6, 1.818775371379255e6, 1.857118138997277e6, 1.905967645448323e6, 1.8313376398674839e6, 1.8552812091570082e6, 1.8524297143449136e6, 1.8592163839407205e6, 1.824326642918671e6, 1.839075089612656e6, 1.8582775531146205e6, 1.8671835925896922e6, 1.872792678766724e6, 1.8420266723046897e6, 1.8485663795329202e6, 1.8295255455042822e6, 1.8575706588585014e6, 1.8792927913857251e6, 1.850727254372726e6, 1.8711191506489357e6, 1.8208321663814893e6, 1.8841976974028207e6, 1.8768252696651565e6, 1.8491175256984278e6, 1.8461990184576095e6, 1.8892183482728794e6, 1.8979949721847223e6, 1.8370514376166863e6, 1.8342710332724454e6, 1.8409748304674197e6, 1.8528088342663848e6, 1.82975570089745e6, 1.8424293104187388e6, 1.8347559029368346e6, 1.8487718867984635e6, 1.8419571675254737e6, 1.8114676548805803e6, 1.8631702759577073e6, 1.8653182839645622e6, 1.8760808664308263e6, 1.9014874419020475e6, 1.8613496297528178e6, 1.8246202899197934e6, 1.8660609821043948e6, 1.8618605648895013e6, 1.8450073258425237e6, 1.853198367195553e6, 1.8563566878338624e6, 1.829810479513092e6, 1.8559104917480417e6, 1.8546857336111264e6, 1.858329038894025e6, 1.857406539821766e6, 1.8792693768461766e6, 1.8717420438642814e6, 1.8502588463849754e6, 1.8383401807114817e6, 1.8510051997679234e6, 1.857987104796723e6, 1.8498144495812354e6, 1.852618396898485e6, 1.8338223261400438e6, 1.7981958045837453e6, 1.8414794122721248e6, 1.8438899747005336e6, 1.8432980742973362e6, 1.8448095255863087e6, 1.8284767379854976e6, 1.8604662073201586e6, 1.8492179466970367e6, 1.8565634508051784e6, 1.8485450153665112e6, 1.823875686042317e6, 1.8173219369266436e6, 1.8599227626340534e6, 1.8722841411160445e6, 1.8255107211660761e6, 1.8687152353787639e6, 1.8537077197404187e6, 1.8253632529250442e6, 1.8272251026747867e6, 1.839257240708939e6, 1.827737192955268e6, 1.8427943279171907e6, 1.8227222894143492e6, 1.8560900255806518e6, 1.8484755667339182e6, 1.8522420332660428e6, 1.8338872503925988e6, 1.8705643683373018e6, 1.8223216900085246e6, 1.843346287970362e6, 1.870053285178581e6, 1.8710532688771782e6, 1.839378417417357e6, 1.854708217524179e6, 1.8443176924192081e6, 1.8636929855082429e6, 1.816344946202297e6, 1.8416137681814549e6, 1.8405672154209616e6, 1.8282041206315225e6, 1.8462008089967854e6, 1.82566772183058e6, 1.869259123488933e6, 1.8833362094384974e6, 1.847902283789091e6, 1.8280595239927038e6, 1.861031310983034e6, 1.8441673371841023e6, 1.8407876543121613e6, 1.8251128639605634e6, 1.8728722100369127e6, 1.8499574659913625e6, 1.8459274967667665e6, 1.8205258822874438e6, 1.8280753490273962e6, 1.835058678999327e6, 1.8790535529440895e6, 1.870619030064158e6, 1.8540475720108012e6, 1.8628446223187763e6, 1.8050177145163356e6, 1.8445509756179692e6, 1.8209212578619963e6, 1.8207127564451075e6, 1.8537927963405107e6, 1.8772581725620653e6, 1.8166652385097246e6, 1.8423056441218723e6, 1.8450617126462585e6, 1.8584521672269981e6, 1.809353968577539e6, 1.8550141302962173e6, 1.8601666878525042e6, 1.8467284961540715e6, 1.8272951250116816e6, 1.8642347471650068e6, 1.8163489870343404e6, 1.8525866808180474e6, 1.8289232852192568e6, 1.8376527338005458e6, 1.8295176808072026e6, 1.866094339400788e6, 1.8287130126489843e6, 1.8657503428080573e6, 1.8130784800525487e6, 1.8534996036189604e6, 1.8430366282878006e6, 1.882261087044372e6, 1.8292481509686e6, 1.8258557016415684e6, 1.8534771510807914e6, 1.8168361687269893e6, 1.8393705857071327e6, 1.8258897012978448e6, 1.8553127370668699e6, 1.8469558937581265e6, 1.8282016336861174e6, 1.8276681952296144e6, 1.811902110627514e6, 1.8257619880003294e6, 1.8495648782568325e6, 1.8459324152005475e6, 1.8492414108669332e6, 1.824963642183524e6, 1.838555295433307e6, 1.844194730646157e6, 1.8305497633728504e6, 1.8200614383199213e6, 1.8444669783306574e6, 1.829624854138254e6, 1.8625780835470608e6, 1.8245093939583767e6, 1.8520619728851903e6, 1.8353792987095225e6, 1.8617032534797587e6, 1.8279276211387806e6, 1.8455788531988258e6, 1.861061412705192e6, 1.8026774414817563e6, 1.8327822350782638e6, 1.844272191697601e6, 1.8403716459981652e6, 1.8491384195182347e6, 1.8288172404313432e6, 1.8513188353881144e6, 1.831838600631489e6, 1.8283566323518036e6, 1.8409043721341833e6, 1.8458987337662543e6, 1.8284671200059708e6, 1.8635494916666157e6, 1.8468393092378168e6, 1.8214261300878052e6, 1.8348705048129489e6, 1.8438546711875694e6, 1.8426181869928245e6, 1.8299248875397304e6, 1.8486939900237934e6, 1.823976590948455e6, 1.8608661852402615e6, 1.851128039616794e6, 1.851890056452279e6, 1.8367651563873785e6, 1.8324908164602981e6, 1.8453577319450032e6, 1.8539290061967885e6, 1.8334939638909893e6, 1.8422851484715994e6, 1.811265645770212e6, 1.8339501713262727e6, 1.8196013525944361e6, 1.8334631630353106e6, 1.8687948228907953e6, 1.8302253707080546e6, 1.8331919493544658e6, 1.85872096018077e6, 1.824899959765596e6, 1.837837248490545e6, 1.8637512325069518e6, 1.8267042250043198e6, 1.8467782265036542e6, 1.8447252266394836e6, 1.8400306955234394e6, 1.8643917815472505e6, 1.8291912430941528e6, 1.865010392464053e6, 1.8285598638673248e6, 1.8377487909869056e6, 1.8328806166109634e6, 1.840028000575707e6, 1.8482594257420057e6, 1.8358658861049146e6, 1.8518414665634076e6, 1.820815789121593e6, 1.8125406038992028e6, 1.8238919247883433e6, 1.8227514407893773e6, 1.8069492416762274e6, 1.8692453928992138e6, 1.836161586688628e6, 1.8418281515831442e6, 1.8266995125485393e6, 1.818738274112167e6, 1.8513542627032455e6, 1.861882822513216e6, 1.853703864152283e6, 1.8398076028832125e6, 1.8474329163793754e6, 1.8544575948544687e6, 1.8417880211701037e6, 1.84589154867863e6, 1.8609051002586079e6, 1.8520574246350443e6, 1.8436130089213816e6, 1.8536273066244007e6, 1.8280282813351694e6, 1.864773051373152e6, 1.8319166763475835e6, 1.843002988595814e6, 1.8243968825803394e6, 1.8557322289394713e6, 1.8562372636917077e6, 1.8626749397926966e6, 1.8251565276956682e6, 1.8269183980710562e6, 1.8351006406731445e6, 1.8279626794552656e6, 1.8348819100455118e6, 1.8351196080652876e6, 1.8285766580535958e6, 1.8460279452436094e6, 1.8323630944394423e6, 1.8517916007958266e6, 1.835686609411203e6, 1.8243937277017531e6, 1.8733573377005456e6, 1.8368045556463653e6, 1.8418680178037514e6, 1.8048539344571684e6, 1.8364160512851654e6, 1.810720898196799e6, 1.8178626663116629e6, 1.85707774759098e6, 1.8622731552598774e6, 1.8275277890638078e6, 1.8476909286464283e6, 1.833649552693701e6, 1.8216652198836978e6, 1.8403294453178656e6, 1.8369859058609905e6, 1.834063708834323e6, 1.8461696469217944e6, 1.8271645267922818e6, 1.853632811970388e6, 1.838273642021957e6, 1.8235154772988383e6, 1.8485506379371479e6, 1.845357520529082e6, 1.8673968427437942e6, 1.8278179846003354e6, 1.8386862823468316e6, 1.8627334901525679e6, 1.8173523448785483e6, 1.834740063799395e6, 1.8253408586307233e6, 1.8483761453696673e6, 1.8160133847382236e6, 1.8381999622391332e6, 1.853130702771892e6, 1.8443614083269758e6, 1.877407430229104e6, 1.8499023890668764e6, 1.8479706803572653e6, 1.8583341176702124e6, 1.8101351245228664e6, 1.8503582278809245e6, 1.8485572533383204e6, 1.852227623592464e6, 1.865147941033818e6, 1.8370838120341701e6, 1.842861042860649e6, 1.8556790358692918e6, 1.848675213952249e6, 1.8269388046728848e6, 1.8309747633805054e6, 1.8377411597098988e6, 1.8332810530362108e6, 1.8633170350100996e6, 1.8214990450222408e6]</t>
   </si>
   <si>
-    <t>[0.8177828788757324, 1.1570570468902588, 1.5043439865112305, 1.8387658596038818, 2.16999888420105, 2.5111260414123535, 2.8687009811401367, 3.2265398502349854, 3.571012020111084, 3.919234037399292, 4.259882926940918, 4.6170690059661865, 4.960881948471069, 5.317946910858154, 5.6953959465026855, 6.07491397857666, 6.456006050109863, 6.820056915283203, 7.179092884063721, 7.537832021713257, 7.907729864120483, 8.278571844100952, 8.645537853240967, 9.024812936782837, 9.391999959945679, 9.768985033035278, 10.145486831665039, 10.518954038619995, 10.901196002960205, 11.275857925415039, 11.65464186668396, 12.035794019699097, 12.42990493774414, 12.845687866210938, 13.259446859359741, 13.64802098274231, 14.024664878845215, 14.407212972640991, 14.780977964401245, 15.183466911315918, 15.579648971557617, 15.968469858169556, 16.39966583251953, 16.80548405647278, 17.20999503135681, 17.632455825805664, 18.04128098487854, 18.448433876037598, 18.85489583015442, 19.253049850463867, 19.670102834701538, 20.088001012802124, 20.490701913833618, 20.90965986251831, 21.313925981521606, 21.734200954437256, 22.143923044204712, 22.552814960479736, 22.975920915603638, 23.388840913772583, 23.796946048736572, 24.212901830673218, 24.644984006881714, 25.063374996185303, 25.492730855941772, 25.920653820037842, 26.345927953720093, 26.785611867904663, 27.207737922668457, 27.651057958602905, 28.083091974258423, 28.50362205505371, 28.948503971099854, 29.37371802330017, 29.801102876663208, 30.23125195503235, 30.678716897964478, 31.109171867370605, 31.53923797607422, 31.983453035354614, 32.4337420463562, 32.878779888153076, 33.318310022354126, 33.75617599487305, 34.19289302825928, 34.626664876937866, 35.064955949783325, 35.53089904785156, 35.95871090888977, 36.397846937179565, 36.841331005096436, 37.288671016693115, 37.74816298484802, 38.20655298233032, 38.664263010025024, 39.1945698261261, 39.635074853897095, 40.23214888572693, 40.69311594963074, 41.12670302391052, 41.5809588432312, 42.032809019088745, 42.474589824676514, 42.94799089431763, 43.39831185340881, 43.85673499107361, 44.30916690826416, 44.777830839157104, 45.23996591567993, 45.71781802177429, 46.18769383430481, 46.6381618976593, 47.09063696861267, 47.55233597755432, 48.01161503791809, 48.478960037231445, 48.943121910095215, 49.40260696411133, 49.87001299858093, 50.33800482749939, 50.83094000816345, 51.307734966278076, 51.786231994628906, 52.23516392707825, 52.69330382347107, 53.149781942367554, 53.614725828170776, 54.082777976989746, 54.55580687522888, 55.02248287200928, 55.486067056655884, 55.95815992355347, 56.417845010757446, 56.88575005531311, 57.355798959732056, 57.823107957839966, 58.293148040771484, 58.749955892562866, 59.217854022979736, 59.71031403541565, 60.178589820861816, 60.64924097061157, 61.1326789855957, 61.60385489463806, 62.098536014556885, 62.60130596160889, 63.0676748752594, 63.540010929107666, 64.008131980896, 64.47759890556335, 64.95536684989929, 65.42365384101868, 65.90762591362, 66.40545988082886, 66.88073182106018, 67.36214184761047, 67.83667802810669, 68.3055739402771, 68.80777287483215, 69.28402590751648, 69.75508284568787, 70.23109483718872, 70.70867395401001, 71.1752769947052, 71.65640497207642, 72.12387990951538, 72.60772705078125, 73.08371996879578, 73.55479693412781, 74.02558898925781, 74.5015480518341, 74.97842502593994, 75.46932196617126, 75.9540159702301, 76.44140791893005, 76.92495894432068, 77.41164994239807, 77.89792585372925, 78.38120889663696, 78.8554048538208, 79.33526992797852, 79.82346105575562, 80.30072093009949, 80.78472399711609, 81.26867294311523, 81.75268483161926, 82.2412588596344, 82.73545289039612, 83.22110104560852, 83.70525693893433, 84.19279885292053, 84.66996693611145, 85.17012286186218, 85.6534538269043, 86.13868498802185, 86.62162804603577, 87.10914301872253, 87.58454298973083, 88.06943893432617, 88.57531189918518, 89.05834603309631, 89.54554891586304, 90.02789902687073, 90.52038192749023, 91.00716590881348, 91.48311185836792, 91.9783878326416, 92.4609010219574, 92.94493889808655, 93.42889785766602, 93.91083884239197, 94.38299894332886, 94.87074184417725, 95.38002800941467, 95.86072587966919, 96.34828495979309, 96.83775687217712, 97.33994889259338, 97.83499789237976, 98.33271598815918, 98.82611393928528, 99.31698799133301, 99.78747797012329, 100.27303886413574, 100.75923895835876, 101.24200105667114, 101.72944498062134, 102.22209000587463, 102.70557403564453, 103.19862198829651, 103.67428398132324, 104.16385102272034, 104.65321803092957, 105.1322889328003, 105.6224730014801, 106.11140584945679, 106.59838700294495, 107.08852791786194, 107.58303093910217, 108.06842994689941, 108.5591230392456, 109.05154585838318, 109.52857184410095, 110.0237078666687, 110.52587890625, 111.03001594543457, 111.5293619632721, 112.02888989448547, 112.51618194580078, 113.0106589794159, 113.50182294845581, 113.99263286590576, 114.4929769039154, 115.0001699924469, 115.50469303131104, 116.00061702728271, 116.48278188705444, 116.97344493865967, 117.47042298316956, 117.95398998260498, 118.45148587226868, 118.95894289016724, 119.44522094726562, 119.94210886955261, 120.43421697616577, 120.92687582969666, 121.47901201248169, 121.96663093566895, 122.48125290870667, 122.97761082649231, 123.48355603218079, 123.98343300819397, 124.48438882827759, 124.97492384910583, 125.47013092041016, 125.96891689300537, 126.4604480266571, 126.95693397521973, 127.46781492233276, 127.96122598648071, 128.463299036026, 128.97729396820068, 129.4792058467865, 129.97918391227722, 130.4818139076233, 130.96902894973755, 131.47424602508545, 131.97366499900818, 132.45852899551392, 132.96397590637207, 133.46931099891663, 133.97786283493042, 134.46883583068848, 134.94977402687073, 135.44930696487427, 135.95618796348572, 136.44404792785645, 136.95917582511902, 137.45093989372253, 137.9567379951477, 138.4680449962616, 138.95461702346802, 139.45482301712036, 139.96576595306396, 140.45416498184204, 140.9449338912964, 141.445072889328, 141.95788288116455, 142.46674585342407, 142.96702003479004, 143.47379803657532, 143.96555089950562, 144.4586160182953, 144.9676158428192, 145.48253798484802, 145.9831519126892, 146.49287295341492, 147.0211579799652, 147.53250002861023, 148.03649187088013, 148.5334508419037, 149.03381204605103, 149.53524088859558, 150.03434681892395, 150.5449378490448, 151.12721800804138, 151.62202191352844, 152.2755069732666, 152.7728099822998, 153.28139400482178, 153.8098909854889, 154.31351494789124, 154.8032829761505, 155.32020902633667, 155.83115887641907, 156.34596586227417, 156.86579990386963, 157.39036989212036, 157.90175700187683, 158.40511798858643, 158.90846991539001, 159.425066947937, 159.92923498153687, 160.4406988620758, 160.9518530368805, 161.45925903320312, 161.98441886901855, 162.494215965271, 162.99567985534668, 163.50488686561584, 164.01187586784363, 164.51747798919678, 165.03027200698853, 165.54538297653198, 166.05656504631042, 166.56015396118164, 167.0766248703003, 167.5815930366516, 168.09075093269348, 168.60718297958374, 169.13349986076355, 169.65320992469788, 170.1642599105835, 170.67531895637512, 171.18511390686035, 171.70346999168396, 172.22244381904602, 172.73740696907043, 173.25164198875427, 173.76903891563416, 174.28305292129517, 174.7906310558319, 175.31692099571228, 175.83704090118408, 176.3604290485382, 176.87370491027832, 177.40238690376282, 177.908931016922, 178.44570684432983, 178.977205991745, 179.5266878604889, 180.04513096809387, 180.57085585594177, 181.08281302452087, 181.60306692123413, 182.12382292747498, 182.6506848335266, 183.17960691452026, 183.69465398788452, 184.22322297096252, 184.74551582336426, 185.28690099716187, 185.82138395309448, 186.3549280166626, 186.8894829750061, 187.4080309867859, 187.93542385101318, 188.45983386039734, 188.970458984375, 189.5036599636078]</t>
+    <t>[0.377302885055542, 0.7315618991851807, 1.1391220092773438, 1.5275828838348389, 1.9145679473876953, 2.3030619621276855, 2.7324559688568115, 3.164522886276245, 3.575260877609253, 3.966836929321289, 4.353379011154175, 4.785431861877441, 5.165411949157715, 5.538291931152344, 5.941563844680786, 6.372197866439819, 6.796159982681274, 7.21696400642395, 7.652880907058716, 8.093488931655884, 8.586843013763428, 9.0970778465271, 9.618419885635376, 10.067149877548218, 10.483144044876099, 10.882351875305176, 11.318644046783447, 11.7360258102417, 12.1456298828125, 12.54375696182251, 12.944591999053955, 13.360086917877197, 13.7949378490448, 14.250762939453125, 14.734894037246704, 15.210527896881104, 15.683516025543213, 16.141795873641968, 16.577009916305542, 17.05260181427002, 17.507654905319214, 17.949368953704834, 18.463165998458862, 18.999531030654907, 19.52111291885376, 20.00071692466736, 20.467469930648804, 20.929263830184937, 21.409397840499878, 21.892058849334717, 22.387141942977905, 22.852515935897827, 23.34452986717224, 23.8311870098114, 24.341142892837524, 24.836298942565918, 25.268913984298706, 25.72426700592041, 26.15868592262268, 26.610638856887817, 27.05507802963257, 27.502163887023926, 27.996104955673218, 28.456223011016846, 28.963449001312256, 29.4787118434906, 29.951053857803345, 30.42137598991394, 30.87227988243103, 31.342883825302124, 31.79840087890625, 32.27584195137024, 32.76278901100159, 33.265185832977295, 33.8117949962616, 34.35209393501282, 34.86712598800659, 35.349193811416626, 35.808244943618774, 36.28143882751465, 36.7747540473938, 37.23403882980347, 37.71038198471069, 38.17702889442444, 38.64183688163757, 39.13300395011902, 39.630614042282104, 40.191540002822876, 40.69444799423218, 41.162521839141846, 41.64742183685303, 42.225849866867065, 42.70505690574646, 43.338512897491455, 43.834738969802856, 44.34345293045044, 44.83131504058838, 45.363353967666626, 45.91697287559509, 46.3829300403595, 46.88545799255371, 47.37985396385193, 47.84563899040222, 48.34701204299927, 48.82352685928345, 49.298259973526, 49.833900928497314, 50.36181592941284, 50.898141860961914, 51.48206400871277, 52.012486934661865, 52.52744793891907, 53.008322954177856, 53.50028085708618, 53.992271900177, 54.474889039993286, 54.96354699134827, 55.442911863327026, 55.91577887535095, 56.422966957092285, 56.97331500053406, 57.56062889099121, 58.16465187072754, 58.74411082267761, 59.36127781867981, 59.88312888145447, 60.38373684883118, 60.885565996170044, 61.36691093444824, 61.865041971206665, 62.35533285140991, 62.8449490070343, 63.34570002555847, 63.91348195075989, 64.49581289291382, 65.0855119228363, 65.59798192977905, 66.12485980987549, 66.62573599815369, 67.14032793045044, 67.63042187690735, 68.115797996521, 68.6210069656372, 69.16034889221191, 69.68289184570312, 70.20252299308777, 70.72494983673096, 71.27582097053528, 71.85316681861877, 72.41339802742004, 72.98116087913513, 73.46809482574463, 74.00303483009338, 74.51820397377014, 75.05298185348511, 75.5545699596405, 76.08557200431824, 76.59908294677734, 77.13803887367249, 77.66776204109192, 78.19659996032715, 78.70994901657104, 79.22519493103027, 79.73139595985413, 80.2371129989624, 80.72637796401978, 81.23346996307373, 81.73319888114929, 82.23251485824585, 82.72735595703125, 83.2443528175354, 83.76807188987732, 84.29078197479248, 84.83501601219177, 85.40758681297302, 85.94561195373535, 86.47186398506165, 87.0135269165039, 87.52504682540894, 88.04439187049866, 88.55539894104004, 89.06927990913391, 89.58989882469177, 90.1092369556427, 90.65238785743713, 91.21258592605591, 91.82771301269531, 92.40170192718506, 92.97524690628052, 93.57304000854492, 94.133633852005, 94.68990898132324, 95.23465585708618, 95.7446780204773, 96.26544499397278, 96.78555989265442, 97.29737591743469, 97.79881286621094, 98.30673003196716, 98.84227085113525, 99.35731101036072, 99.87809991836548, 100.40080404281616, 100.96724796295166, 101.49710583686829, 102.04175090789795, 102.55705189704895, 103.0883059501648, 103.64128494262695, 104.14635396003723, 104.66120100021362, 105.17174983024597, 105.67727088928223, 106.19881081581116, 106.74723196029663, 107.27716088294983, 107.83608102798462, 108.37629985809326, 108.89529204368591, 109.42335295677185, 109.93963599205017, 110.44732284545898, 110.95453786849976, 111.47845792770386, 111.99081897735596, 112.50807094573975, 113.02313899993896, 113.59946799278259, 114.14662599563599, 114.6684718132019, 115.22194004058838, 115.74765086174011, 116.29791188240051, 116.81977581977844, 117.33557081222534, 117.84283185005188, 118.38155603408813, 118.90281200408936, 119.41512489318848, 119.96875596046448, 120.50512099266052, 121.05132484436035, 121.61735892295837, 122.1715829372406, 122.69055700302124, 123.20762181282043, 123.72927904129028, 124.31134295463562, 124.88439583778381, 125.41844987869263, 125.9367368221283, 126.45465397834778, 126.99206590652466, 127.54686689376831, 128.10292601585388, 128.62989401817322, 129.16607403755188, 129.73019981384277, 130.31517386436462, 130.87215185165405, 131.4505648612976, 131.9715440273285, 132.49603581428528, 133.03042697906494, 133.53902292251587, 134.0872609615326, 134.7054259777069, 135.23762798309326, 135.78068089485168, 136.4369728565216, 136.97509002685547, 137.51206588745117, 138.07086992263794, 138.6661229133606, 139.24257588386536, 139.82966995239258, 140.3512020111084, 140.90656304359436, 141.4529778957367, 142.01082301139832, 142.55377888679504, 143.09322595596313, 143.61406898498535, 144.15239787101746, 144.6926519870758, 145.26696181297302, 145.8418288230896, 146.41052198410034, 146.9733829498291, 147.5654640197754, 148.10758996009827, 148.64031791687012, 149.19449591636658, 149.7367398738861, 150.29934787750244, 150.8373019695282, 151.3654749393463, 151.89762997627258, 152.44003891944885, 152.9745008945465, 153.51703000068665, 154.04840397834778, 154.61080694198608, 155.2120418548584, 155.78461503982544, 156.3135528564453, 156.88430094718933, 157.45351386070251, 157.96851587295532, 158.53083682060242, 159.0779469013214, 159.60249996185303, 160.13258600234985, 160.6639528274536, 161.20593786239624, 161.76244592666626, 162.3447778224945, 162.90032291412354, 163.5762379169464, 164.18697094917297, 165.02614283561707, 165.60986995697021, 166.15363788604736, 166.7174928188324, 167.27912092208862, 167.84038591384888, 168.39422392845154, 168.94746589660645, 169.48975086212158, 170.02377891540527, 170.5799880027771, 171.1048619747162, 171.678377866745, 172.23324704170227, 172.78484296798706, 173.3694519996643, 173.92913103103638, 174.458477973938, 175.01264691352844, 175.62711596488953, 176.18717193603516, 176.7582459449768, 177.30266094207764, 177.83517789840698, 178.38802886009216, 178.9683859348297, 179.54045486450195, 180.09453296661377, 180.67227482795715, 181.2340190410614, 181.78717303276062, 182.33904480934143, 182.89317393302917, 183.42551398277283, 184.0274429321289, 184.56351900100708, 185.1164529323578, 185.66679883003235, 186.203773021698, 186.75948095321655, 187.33313488960266, 187.93060898780823, 188.48965692520142, 189.10831499099731, 189.739825963974, 190.30863690376282, 190.86912393569946, 191.44241404533386, 192.00968098640442, 192.56072402000427, 193.12608098983765, 193.68237400054932, 194.28159999847412, 194.822448015213, 195.4060080051422, 195.97900581359863, 196.57604598999023, 197.1665699481964, 197.79827404022217, 198.4043378829956, 198.9759738445282, 199.59511590003967, 200.18212985992432, 200.75054788589478, 201.33937001228333, 201.90926098823547, 202.45743203163147, 203.05868291854858, 203.64883494377136, 204.19838404655457, 204.7586100101471, 205.35417485237122, 205.95329594612122, 206.53572392463684, 207.1631019115448, 207.79696583747864, 208.39703392982483, 208.95319890975952, 209.50593185424805, 210.13356184959412]</t>
   </si>
 </sst>
 </file>
